--- a/me/6.Component-Communication-Using-Events.xlsx
+++ b/me/6.Component-Communication-Using-Events.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\LightningWebComponent\me\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61D350A2-829A-4C62-B9A4-7EF057B6053C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C61FED3-75C5-49FC-B643-202BB43F5EE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dispatching And Handling Events" sheetId="1" r:id="rId1"/>
+    <sheet name="CommunicationdependentComponent" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="244">
   <si>
     <t>構成</t>
   </si>
@@ -559,6 +560,461 @@
       </rPr>
       <t xml:space="preserve"> up parent component</t>
     </r>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>and they can listen for the changes being published by other components.</t>
+  </si>
+  <si>
+    <t>/**</t>
+  </si>
+  <si>
+    <t> * A basic pub-sub mechanism for sibling component communication</t>
+  </si>
+  <si>
+    <t> *</t>
+  </si>
+  <si>
+    <t> * TODO - adopt standard flexipage sibling communication mechanism when it's available.</t>
+  </si>
+  <si>
+    <t> */</t>
+  </si>
+  <si>
+    <t>const events = {};</t>
+  </si>
+  <si>
+    <t>const samePageRef = (pageRef1, pageRef2) =&gt; {</t>
+  </si>
+  <si>
+    <t>    const obj1 = pageRef1.attributes;</t>
+  </si>
+  <si>
+    <t>    const obj2 = pageRef2.attributes;</t>
+  </si>
+  <si>
+    <t>    return Object.keys(obj1)</t>
+  </si>
+  <si>
+    <t>        .concat(Object.keys(obj2))</t>
+  </si>
+  <si>
+    <t>        .every(key =&gt; {</t>
+  </si>
+  <si>
+    <t>            return obj1[key] === obj2[key];</t>
+  </si>
+  <si>
+    <t>        });</t>
+  </si>
+  <si>
+    <t>};</t>
+  </si>
+  <si>
+    <t> * Registers a callback for an event</t>
+  </si>
+  <si>
+    <t> * @param {string} eventName - Name of the event to listen for.</t>
+  </si>
+  <si>
+    <t> * @param {function} callback - Function to invoke when said event is fired.</t>
+  </si>
+  <si>
+    <t> * @param {object} thisArg - The value to be passed as the this parameter to the callback function is bound.</t>
+  </si>
+  <si>
+    <t>const registerListener = (eventName, callback, thisArg) =&gt; {</t>
+  </si>
+  <si>
+    <t>    // Checking that the listener has a pageRef property. We rely on that property for filtering purpose in fireEvent()</t>
+  </si>
+  <si>
+    <t>    if (!thisArg.pageRef) {</t>
+  </si>
+  <si>
+    <t>        throw new Error(</t>
+  </si>
+  <si>
+    <t>            'pubsub listeners need a "@wire(CurrentPageReference) pageRef" property'</t>
+  </si>
+  <si>
+    <t>        );</t>
+  </si>
+  <si>
+    <t>    if (!events[eventName]) {</t>
+  </si>
+  <si>
+    <t>        events[eventName] = [];</t>
+  </si>
+  <si>
+    <t>    const duplicate = events[eventName].find(listener =&gt; {</t>
+  </si>
+  <si>
+    <t>        return listener.callback === callback &amp;&amp; listener.thisArg === thisArg;</t>
+  </si>
+  <si>
+    <t>    });</t>
+  </si>
+  <si>
+    <t>    if (!duplicate) {</t>
+  </si>
+  <si>
+    <t>        events[eventName].push({ callback, thisArg });</t>
+  </si>
+  <si>
+    <t> * Unregisters a callback for an event</t>
+  </si>
+  <si>
+    <t> * @param {string} eventName - Name of the event to unregister from.</t>
+  </si>
+  <si>
+    <t> * @param {function} callback - Function to unregister.</t>
+  </si>
+  <si>
+    <t>const unregisterListener = (eventName, callback, thisArg) =&gt; {</t>
+  </si>
+  <si>
+    <t>    if (events[eventName]) {</t>
+  </si>
+  <si>
+    <t>        events[eventName] = events[eventName].filter(</t>
+  </si>
+  <si>
+    <t>            listener =&gt;</t>
+  </si>
+  <si>
+    <t>                listener.callback !== callback || listener.thisArg !== thisArg</t>
+  </si>
+  <si>
+    <t> * Unregisters all event listeners bound to an object.</t>
+  </si>
+  <si>
+    <t> * @param {object} thisArg - All the callbacks bound to this object will be removed.</t>
+  </si>
+  <si>
+    <t>const unregisterAllListeners = thisArg =&gt; {</t>
+  </si>
+  <si>
+    <t>    Object.keys(events).forEach(eventName =&gt; {</t>
+  </si>
+  <si>
+    <t>            listener =&gt; listener.thisArg !== thisArg</t>
+  </si>
+  <si>
+    <t> * Fires an event to listeners.</t>
+  </si>
+  <si>
+    <t> * @param {object} pageRef - Reference of the page that represents the event scope.</t>
+  </si>
+  <si>
+    <t> * @param {string} eventName - Name of the event to fire.</t>
+  </si>
+  <si>
+    <t> * @param {*} payload - Payload of the event to fire.</t>
+  </si>
+  <si>
+    <t>const fireEvent = (pageRef, eventName, payload) =&gt; {</t>
+  </si>
+  <si>
+    <t>        const listeners = events[eventName];</t>
+  </si>
+  <si>
+    <t>        listeners.forEach(listener =&gt; {</t>
+  </si>
+  <si>
+    <t>            if (samePageRef(pageRef, listener.thisArg.pageRef)) {</t>
+  </si>
+  <si>
+    <t>                try {</t>
+  </si>
+  <si>
+    <t>                    listener.callback.call(listener.thisArg, payload);</t>
+  </si>
+  <si>
+    <t>                } catch (error) {</t>
+  </si>
+  <si>
+    <t>                    // fail silently</t>
+  </si>
+  <si>
+    <t>                }</t>
+  </si>
+  <si>
+    <t>            }</t>
+  </si>
+  <si>
+    <t>export {</t>
+  </si>
+  <si>
+    <t>    registerListener,</t>
+  </si>
+  <si>
+    <t>    unregisterListener,</t>
+  </si>
+  <si>
+    <t>    unregisterAllListeners,</t>
+  </si>
+  <si>
+    <t>    fireEvent</t>
+  </si>
+  <si>
+    <t>events global variable hold all the defferent events being published in this particular library. This is a global list because we do not want any duplicate event to published again and again</t>
+  </si>
+  <si>
+    <t>that means if a event is being published or is being listened from the same page or not</t>
+  </si>
+  <si>
+    <t>LightningWebComponent\LWC\force-app\main\default\lwc\pubsub</t>
+  </si>
+  <si>
+    <t>pubsub</t>
+  </si>
+  <si>
+    <t>pubsub.js</t>
+  </si>
+  <si>
+    <t>pubsub.js-meta.xml</t>
+  </si>
+  <si>
+    <t>selectedMeetingRoom</t>
+  </si>
+  <si>
+    <t>selectedMeetingRoom.html</t>
+  </si>
+  <si>
+    <t>selectedMeetingRoom.js</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>Communication Between Independent Components</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This part we learn how we can communicate between components if they are not part of same component hierarchy or if they are not related to each other we need to use a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>singleton library</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">which uses publish and subscribe pattern. That means a component can </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pulish</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> its events in that particular library, another component can </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>listen</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for it. They can subscribe to the singleton library</t>
+    </r>
+  </si>
+  <si>
+    <t>There is already pubsub moudle created by the Salesforce developer team and we are going to use the same, the pubsub singleton library that we are going to use</t>
+  </si>
+  <si>
+    <t>this samePageRef method is used to check if the page reference of both publish and subscriberis same or not</t>
+  </si>
+  <si>
+    <t xml:space="preserve">this registerListener method we need to use whenever we are going to listen for a particular event. That means we are going to use this registerListener method in a component where are </t>
+  </si>
+  <si>
+    <t>going to listen for the events being published by other components.</t>
+  </si>
+  <si>
+    <t>this unregisterListener method is going to unregister listening for a particular event</t>
+  </si>
+  <si>
+    <t>this unregisterAllListeners method to unregister all the events</t>
+  </si>
+  <si>
+    <t>this fireEvent method is used by pushlisher component, the component which is going to pushlish the event</t>
+  </si>
+  <si>
+    <t>import {fireEvent} from 'c/pubsub';</t>
+  </si>
+  <si>
+    <t>import { CurrentPageReference } from 'lightning/navigation';</t>
+  </si>
+  <si>
+    <t>    @api meetingRoomInfo = { roomName: 'A-01', roomCapacity: '12' }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    @wire(CurrentPageReference) pageReference; </t>
+  </si>
+  <si>
+    <t>        fireEvent(this.pageReference, 'pubsubtileclick', this.meetingRoomInfo);</t>
+  </si>
+  <si>
+    <r>
+      <t>import { LightningElement, api</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, wire</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> } from 'lwc';</t>
+    </r>
+  </si>
+  <si>
+    <t>LightningWebComponent\LWC\force-app\main\default\lwc\selectedMeetingRoom\selectedMeetingRoom.html</t>
+  </si>
+  <si>
+    <t>    &lt;lightning-card title="Selected Meeting Room"&gt;</t>
+  </si>
+  <si>
+    <t>        You have selected : {selectedMeetingRoom.roomName}</t>
+  </si>
+  <si>
+    <t>        Room Capacity : {selectedMeetingRoom.roomCapacity}</t>
+  </si>
+  <si>
+    <t>LightningWebComponent\LWC\force-app\main\default\lwc\selectedMeetingRoom\selectedMeetingRoom.js</t>
+  </si>
+  <si>
+    <t>import { LightningElement, track, wire } from 'lwc';</t>
+  </si>
+  <si>
+    <t>import {registerListener, unregisterAllListeners} from 'c/pubsub';</t>
+  </si>
+  <si>
+    <t>export default class SelectedMeetingRoom extends LightningElement {</t>
+  </si>
+  <si>
+    <t>    @track selectedMeetingRoom = {};</t>
+  </si>
+  <si>
+    <t>    @wire(CurrentPageReference) pageRef;</t>
+  </si>
+  <si>
+    <t>    connectedCallback(){</t>
+  </si>
+  <si>
+    <t>        registerListener('pubsubtileclick', this.onMeetingRoomSelectHandler, this);</t>
+  </si>
+  <si>
+    <t>    disconnectedCallback(){</t>
+  </si>
+  <si>
+    <t>        unregisterAllListeners(this);</t>
+  </si>
+  <si>
+    <t>    onMeetingRoomSelectHandler(payload){</t>
+  </si>
+  <si>
+    <t>        this.selectedMeetingRoom = payload;</t>
+  </si>
+  <si>
+    <t>fire pubsubtileclick event to push pubsubtileclick event inside pubsub moudle which can be subscribed by other components and they can listen for this event</t>
+  </si>
+  <si>
+    <t>we need to wire CurrentPageReference property to get the actual page reference</t>
+  </si>
+  <si>
+    <t>pubsubtileclick: event name</t>
+  </si>
+  <si>
+    <t>pass showRoomInfo as payload</t>
+  </si>
+  <si>
+    <t>※Whenever user click on meeting room tile, the separate selectedMeetingRoom component listen for this event and show us detail of selected meeting room</t>
+  </si>
+  <si>
+    <t>※handle pubsubtileclick event in our selectedMeetingRoom component. There as well we need to use pubsub module and also the CurrentPageReference to match if the page reference of meetingRoom component and the page of selectedMeetingRoom component is same or not</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">include the namespace </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> beforce pubsub module because this is a custom module we have created. It belongs to custom namespace</t>
+    </r>
+  </si>
+  <si>
+    <t>unregister all listeners from current page</t>
+  </si>
+  <si>
+    <t>method should be called whenever any event is getting fired, we will assign value to selectedMeetingRoom</t>
+  </si>
+  <si>
+    <t>Click on any title</t>
+  </si>
+  <si>
+    <t>roomName and roomCapacity are displayed</t>
   </si>
 </sst>
 </file>
@@ -693,7 +1149,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -705,12 +1161,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1531,6 +1983,567 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>392206</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>179294</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>437029</xdr:colOff>
+      <xdr:row>180</xdr:row>
+      <xdr:rowOff>67235</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1193448B-6130-3B8A-12EF-FB9D6537E868}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="997324" y="27039794"/>
+          <a:ext cx="44823" cy="7317441"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>22412</xdr:colOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>291353</xdr:colOff>
+      <xdr:row>180</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Straight Arrow Connector 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0F0138C-ECDB-07BC-72CB-86C1D1F3A4F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1837765" y="33337500"/>
+          <a:ext cx="874059" cy="1042147"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>56030</xdr:colOff>
+      <xdr:row>167</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>78441</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>100853</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Straight Arrow Connector 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8A785D1-DCDC-517E-6578-82E61B85D308}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1266265" y="31947971"/>
+          <a:ext cx="22411" cy="1299882"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>504264</xdr:colOff>
+      <xdr:row>165</xdr:row>
+      <xdr:rowOff>145676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>201705</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>78441</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="Straight Arrow Connector 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9804CC9A-45E2-97D1-F913-4C3D4CA939A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1109382" y="31578176"/>
+          <a:ext cx="1512794" cy="1647265"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>280147</xdr:colOff>
+      <xdr:row>180</xdr:row>
+      <xdr:rowOff>145676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>425823</xdr:colOff>
+      <xdr:row>205</xdr:row>
+      <xdr:rowOff>56029</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="Straight Arrow Connector 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F326AEC4-66F0-5F63-9BD2-CD514C60C6E0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2095500" y="34435676"/>
+          <a:ext cx="750794" cy="4672853"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>179294</xdr:colOff>
+      <xdr:row>172</xdr:row>
+      <xdr:rowOff>156882</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>593912</xdr:colOff>
+      <xdr:row>180</xdr:row>
+      <xdr:rowOff>56029</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="Straight Arrow Connector 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18D5438D-3F73-5968-5961-8CCBE737176C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1994647" y="32922882"/>
+          <a:ext cx="2229971" cy="1423147"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>44824</xdr:colOff>
+      <xdr:row>200</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>78441</xdr:colOff>
+      <xdr:row>214</xdr:row>
+      <xdr:rowOff>100853</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A336EA2C-E7F8-B971-F25C-EB893B959B17}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1255059" y="38234471"/>
+          <a:ext cx="33617" cy="2633382"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>537883</xdr:colOff>
+      <xdr:row>205</xdr:row>
+      <xdr:rowOff>179294</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>302559</xdr:colOff>
+      <xdr:row>213</xdr:row>
+      <xdr:rowOff>78441</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="Straight Arrow Connector 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A58E580-0DCB-239F-F1E4-5D84763D8A9B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1748118" y="39231794"/>
+          <a:ext cx="1580029" cy="1423147"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>112058</xdr:colOff>
+      <xdr:row>221</xdr:row>
+      <xdr:rowOff>78442</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>459441</xdr:colOff>
+      <xdr:row>251</xdr:row>
+      <xdr:rowOff>16104</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Picture 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE663A4B-1424-0ED6-184D-839333B1D1B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="717176" y="42178942"/>
+          <a:ext cx="11239500" cy="5652662"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>134471</xdr:colOff>
+      <xdr:row>253</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>425824</xdr:colOff>
+      <xdr:row>283</xdr:row>
+      <xdr:rowOff>34028</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Picture 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82EA607E-4CE9-DBAF-298C-C66819230E7F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="739589" y="48263736"/>
+          <a:ext cx="11183470" cy="5681792"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>134471</xdr:colOff>
+      <xdr:row>286</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>324971</xdr:colOff>
+      <xdr:row>315</xdr:row>
+      <xdr:rowOff>148950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="Picture 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4498019-D207-0F05-F4BE-FE6CDAB19853}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="739589" y="54550236"/>
+          <a:ext cx="11082617" cy="5606214"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1801,8 +2814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:T263"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y98" sqref="Y98:Y99"/>
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q53" sqref="Q53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1972,32 +2985,28 @@
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B27" s="5"/>
-      <c r="G27" s="11" t="s">
+      <c r="G27" t="s">
         <v>21</v>
       </c>
-      <c r="H27" s="11"/>
       <c r="L27" s="6"/>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B28" s="5"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11" t="s">
+      <c r="H28" t="s">
         <v>22</v>
       </c>
       <c r="L28" s="6"/>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B29" s="5"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11" t="s">
+      <c r="H29" t="s">
         <v>23</v>
       </c>
       <c r="L29" s="6"/>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B30" s="5"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11" t="s">
+      <c r="H30" t="s">
         <v>24</v>
       </c>
       <c r="L30" s="6"/>
@@ -2016,112 +3025,136 @@
       </c>
       <c r="L32" s="6"/>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="5"/>
       <c r="H33" s="7" t="s">
         <v>27</v>
       </c>
       <c r="L33" s="6"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M33" t="s">
+        <v>59</v>
+      </c>
+      <c r="N33" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="5"/>
       <c r="H34" s="7" t="s">
         <v>28</v>
       </c>
       <c r="L34" s="6"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M34" t="s">
+        <v>59</v>
+      </c>
+      <c r="N34" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="5"/>
       <c r="G35" t="s">
         <v>29</v>
       </c>
       <c r="L35" s="6"/>
     </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="5"/>
       <c r="H36" s="7" t="s">
         <v>30</v>
       </c>
       <c r="L36" s="6"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M36" t="s">
+        <v>59</v>
+      </c>
+      <c r="N36" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" s="5"/>
       <c r="H37" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L37" s="6"/>
-    </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="M37" t="s">
+        <v>59</v>
+      </c>
+      <c r="N37" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" s="5"/>
       <c r="G38" t="s">
         <v>32</v>
       </c>
       <c r="L38" s="6"/>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" s="5"/>
       <c r="H39" t="s">
         <v>33</v>
       </c>
       <c r="L39" s="6"/>
     </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" s="5"/>
       <c r="H40" t="s">
         <v>34</v>
       </c>
       <c r="L40" s="6"/>
     </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" s="5"/>
       <c r="H41" t="s">
         <v>35</v>
       </c>
       <c r="L41" s="6"/>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="5"/>
       <c r="H42" t="s">
         <v>36</v>
       </c>
       <c r="L42" s="6"/>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="5"/>
       <c r="G43" t="s">
         <v>37</v>
       </c>
       <c r="L43" s="6"/>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="5"/>
       <c r="H44" t="s">
         <v>38</v>
       </c>
       <c r="L44" s="6"/>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45" s="5"/>
       <c r="H45" t="s">
         <v>39</v>
       </c>
       <c r="L45" s="6"/>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B46" s="5"/>
       <c r="H46" t="s">
         <v>40</v>
       </c>
       <c r="L46" s="6"/>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" s="5"/>
       <c r="H47" t="s">
         <v>41</v>
       </c>
       <c r="L47" s="6"/>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B48" s="5"/>
       <c r="G48" t="s">
         <v>42</v>
@@ -2191,26 +3224,12 @@
       <c r="B58" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C58" s="12"/>
-      <c r="D58" s="12"/>
-      <c r="E58" s="12"/>
-      <c r="F58" s="12"/>
-      <c r="G58" s="12"/>
-      <c r="H58" s="12"/>
-      <c r="I58" s="12"/>
       <c r="J58" s="6"/>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B59" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C59" s="12"/>
-      <c r="D59" s="12"/>
-      <c r="E59" s="12"/>
-      <c r="F59" s="12"/>
-      <c r="G59" s="12"/>
-      <c r="H59" s="12"/>
-      <c r="I59" s="12"/>
       <c r="J59" s="6"/>
       <c r="K59" t="s">
         <v>59</v>
@@ -2220,81 +3239,39 @@
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B60" s="13" t="s">
+      <c r="B60" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="C60" s="12"/>
-      <c r="D60" s="12"/>
-      <c r="E60" s="12"/>
-      <c r="F60" s="12"/>
-      <c r="G60" s="12"/>
-      <c r="H60" s="12"/>
-      <c r="I60" s="12"/>
       <c r="J60" s="6"/>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B61" s="13" t="s">
+      <c r="B61" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="C61" s="12"/>
-      <c r="D61" s="12"/>
-      <c r="E61" s="12"/>
-      <c r="F61" s="12"/>
-      <c r="G61" s="12"/>
-      <c r="H61" s="12"/>
-      <c r="I61" s="12"/>
       <c r="J61" s="6"/>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B62" s="13" t="s">
+      <c r="B62" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="C62" s="12"/>
-      <c r="D62" s="12"/>
-      <c r="E62" s="12"/>
-      <c r="F62" s="12"/>
-      <c r="G62" s="12"/>
-      <c r="H62" s="12"/>
-      <c r="I62" s="12"/>
       <c r="J62" s="6"/>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B63" s="13" t="s">
+      <c r="B63" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C63" s="12"/>
-      <c r="D63" s="12"/>
-      <c r="E63" s="12"/>
-      <c r="F63" s="12"/>
-      <c r="G63" s="12"/>
-      <c r="H63" s="12"/>
-      <c r="I63" s="12"/>
       <c r="J63" s="6"/>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B64" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C64" s="12"/>
-      <c r="D64" s="12"/>
-      <c r="E64" s="12"/>
-      <c r="F64" s="12"/>
-      <c r="G64" s="12"/>
-      <c r="H64" s="12"/>
-      <c r="I64" s="12"/>
       <c r="J64" s="6"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B65" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C65" s="12"/>
-      <c r="D65" s="12"/>
-      <c r="E65" s="12"/>
-      <c r="F65" s="12"/>
-      <c r="G65" s="12"/>
-      <c r="H65" s="12"/>
-      <c r="I65" s="12"/>
       <c r="J65" s="6"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
@@ -2309,138 +3286,6 @@
       <c r="H66" s="9"/>
       <c r="I66" s="9"/>
       <c r="J66" s="10"/>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B67" s="12"/>
-      <c r="C67" s="12"/>
-      <c r="D67" s="12"/>
-      <c r="E67" s="12"/>
-      <c r="F67" s="12"/>
-      <c r="G67" s="12"/>
-      <c r="H67" s="12"/>
-      <c r="I67" s="12"/>
-      <c r="J67" s="12"/>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B68" s="12"/>
-      <c r="C68" s="12"/>
-      <c r="D68" s="12"/>
-      <c r="E68" s="12"/>
-      <c r="F68" s="12"/>
-      <c r="G68" s="12"/>
-      <c r="H68" s="12"/>
-      <c r="I68" s="12"/>
-      <c r="J68" s="12"/>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B69" s="12"/>
-      <c r="C69" s="12"/>
-      <c r="D69" s="12"/>
-      <c r="E69" s="12"/>
-      <c r="F69" s="12"/>
-      <c r="G69" s="12"/>
-      <c r="H69" s="12"/>
-      <c r="I69" s="12"/>
-      <c r="J69" s="12"/>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B70" s="12"/>
-      <c r="C70" s="12"/>
-      <c r="D70" s="12"/>
-      <c r="E70" s="12"/>
-      <c r="F70" s="12"/>
-      <c r="G70" s="12"/>
-      <c r="H70" s="12"/>
-      <c r="I70" s="12"/>
-      <c r="J70" s="12"/>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B71" s="12"/>
-      <c r="C71" s="12"/>
-      <c r="D71" s="12"/>
-      <c r="E71" s="12"/>
-      <c r="F71" s="12"/>
-      <c r="G71" s="12"/>
-      <c r="H71" s="12"/>
-      <c r="I71" s="12"/>
-      <c r="J71" s="12"/>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B72" s="12"/>
-      <c r="C72" s="12"/>
-      <c r="D72" s="12"/>
-      <c r="E72" s="12"/>
-      <c r="F72" s="12"/>
-      <c r="G72" s="12"/>
-      <c r="H72" s="12"/>
-      <c r="I72" s="12"/>
-      <c r="J72" s="12"/>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B73" s="12"/>
-      <c r="C73" s="12"/>
-      <c r="D73" s="12"/>
-      <c r="E73" s="12"/>
-      <c r="F73" s="12"/>
-      <c r="G73" s="12"/>
-      <c r="H73" s="12"/>
-      <c r="I73" s="12"/>
-      <c r="J73" s="12"/>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B74" s="12"/>
-      <c r="C74" s="12"/>
-      <c r="D74" s="12"/>
-      <c r="E74" s="12"/>
-      <c r="F74" s="12"/>
-      <c r="G74" s="12"/>
-      <c r="H74" s="12"/>
-      <c r="I74" s="12"/>
-      <c r="J74" s="12"/>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B75" s="12"/>
-      <c r="C75" s="12"/>
-      <c r="D75" s="12"/>
-      <c r="E75" s="12"/>
-      <c r="F75" s="12"/>
-      <c r="G75" s="12"/>
-      <c r="H75" s="12"/>
-      <c r="I75" s="12"/>
-      <c r="J75" s="12"/>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B76" s="12"/>
-      <c r="C76" s="12"/>
-      <c r="D76" s="12"/>
-      <c r="E76" s="12"/>
-      <c r="F76" s="12"/>
-      <c r="G76" s="12"/>
-      <c r="H76" s="12"/>
-      <c r="I76" s="12"/>
-      <c r="J76" s="12"/>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B77" s="12"/>
-      <c r="C77" s="12"/>
-      <c r="D77" s="12"/>
-      <c r="E77" s="12"/>
-      <c r="F77" s="12"/>
-      <c r="G77" s="12"/>
-      <c r="H77" s="12"/>
-      <c r="I77" s="12"/>
-      <c r="J77" s="12"/>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B78" s="12"/>
-      <c r="C78" s="12"/>
-      <c r="D78" s="12"/>
-      <c r="E78" s="12"/>
-      <c r="F78" s="12"/>
-      <c r="G78" s="12"/>
-      <c r="H78" s="12"/>
-      <c r="I78" s="12"/>
-      <c r="J78" s="12"/>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
@@ -2463,110 +3308,46 @@
     </row>
     <row r="82" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B82" s="5"/>
-      <c r="C82" s="12"/>
-      <c r="D82" s="12"/>
-      <c r="E82" s="12"/>
-      <c r="F82" s="12"/>
-      <c r="G82" s="12"/>
-      <c r="H82" s="12"/>
-      <c r="I82" s="12"/>
-      <c r="J82" s="12"/>
       <c r="K82" s="6"/>
     </row>
     <row r="83" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B83" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C83" s="12"/>
-      <c r="D83" s="12"/>
-      <c r="E83" s="12"/>
-      <c r="F83" s="12"/>
-      <c r="G83" s="12"/>
-      <c r="H83" s="12"/>
-      <c r="I83" s="12"/>
-      <c r="J83" s="12"/>
       <c r="K83" s="6"/>
     </row>
     <row r="84" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B84" s="13" t="s">
+      <c r="B84" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="C84" s="12"/>
-      <c r="D84" s="12"/>
-      <c r="E84" s="12"/>
-      <c r="F84" s="12"/>
-      <c r="G84" s="12"/>
-      <c r="H84" s="12"/>
-      <c r="I84" s="12"/>
-      <c r="J84" s="12"/>
       <c r="K84" s="6"/>
     </row>
     <row r="85" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B85" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C85" s="12"/>
-      <c r="D85" s="12"/>
-      <c r="E85" s="12"/>
-      <c r="F85" s="12"/>
-      <c r="G85" s="12"/>
-      <c r="H85" s="12"/>
-      <c r="I85" s="12"/>
-      <c r="J85" s="12"/>
       <c r="K85" s="6"/>
     </row>
     <row r="86" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B86" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C86" s="12"/>
-      <c r="D86" s="12"/>
-      <c r="E86" s="12"/>
-      <c r="F86" s="12"/>
-      <c r="G86" s="12"/>
-      <c r="H86" s="12"/>
-      <c r="I86" s="12"/>
-      <c r="J86" s="12"/>
       <c r="K86" s="6"/>
     </row>
     <row r="87" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B87" s="5"/>
-      <c r="C87" s="12"/>
-      <c r="D87" s="12"/>
-      <c r="E87" s="12"/>
-      <c r="F87" s="12"/>
-      <c r="G87" s="12"/>
-      <c r="H87" s="12"/>
-      <c r="I87" s="12"/>
-      <c r="J87" s="12"/>
       <c r="K87" s="6"/>
     </row>
     <row r="88" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B88" s="13" t="s">
+      <c r="B88" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="C88" s="12"/>
-      <c r="D88" s="12"/>
-      <c r="E88" s="12"/>
-      <c r="F88" s="12"/>
-      <c r="G88" s="12"/>
-      <c r="H88" s="12"/>
-      <c r="I88" s="12"/>
-      <c r="J88" s="12"/>
       <c r="K88" s="6"/>
     </row>
     <row r="89" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B89" s="13" t="s">
+      <c r="B89" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="C89" s="12"/>
-      <c r="D89" s="12"/>
-      <c r="E89" s="12"/>
-      <c r="F89" s="12"/>
-      <c r="G89" s="12"/>
-      <c r="H89" s="12"/>
-      <c r="I89" s="12"/>
-      <c r="J89" s="12"/>
       <c r="K89" s="6"/>
       <c r="L89" t="s">
         <v>59</v>
@@ -2576,92 +3357,44 @@
       </c>
     </row>
     <row r="90" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B90" s="13"/>
-      <c r="C90" s="12"/>
-      <c r="D90" s="12"/>
-      <c r="E90" s="12"/>
-      <c r="F90" s="12"/>
-      <c r="G90" s="12"/>
-      <c r="H90" s="12"/>
-      <c r="I90" s="12"/>
-      <c r="J90" s="12"/>
+      <c r="B90" s="11"/>
       <c r="K90" s="6"/>
       <c r="M90" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="91" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B91" s="13"/>
-      <c r="C91" s="12"/>
-      <c r="D91" s="12"/>
-      <c r="E91" s="12"/>
-      <c r="F91" s="12"/>
-      <c r="G91" s="12"/>
-      <c r="H91" s="12"/>
-      <c r="I91" s="12"/>
-      <c r="J91" s="12"/>
+      <c r="B91" s="11"/>
       <c r="K91" s="6"/>
       <c r="M91" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="92" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B92" s="13"/>
-      <c r="C92" s="12"/>
-      <c r="D92" s="12"/>
-      <c r="E92" s="12"/>
-      <c r="F92" s="12"/>
-      <c r="G92" s="12"/>
-      <c r="H92" s="12"/>
-      <c r="I92" s="12"/>
-      <c r="J92" s="12"/>
+      <c r="B92" s="11"/>
       <c r="K92" s="6"/>
-      <c r="M92" s="14" t="s">
+      <c r="M92" s="12" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="93" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B93" s="13"/>
-      <c r="C93" s="12"/>
-      <c r="D93" s="12"/>
-      <c r="E93" s="12"/>
-      <c r="F93" s="12"/>
-      <c r="G93" s="12"/>
-      <c r="H93" s="12"/>
-      <c r="I93" s="12"/>
-      <c r="J93" s="12"/>
+      <c r="B93" s="11"/>
       <c r="K93" s="6"/>
-      <c r="M93" s="16" t="s">
+      <c r="M93" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="94" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B94" s="13"/>
-      <c r="C94" s="12"/>
-      <c r="D94" s="12"/>
-      <c r="E94" s="12"/>
-      <c r="F94" s="12"/>
-      <c r="G94" s="12"/>
-      <c r="H94" s="12"/>
-      <c r="I94" s="12"/>
-      <c r="J94" s="12"/>
+      <c r="B94" s="11"/>
       <c r="K94" s="6"/>
-      <c r="M94" s="16" t="s">
+      <c r="M94" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="95" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B95" s="13" t="s">
+      <c r="B95" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="C95" s="12"/>
-      <c r="D95" s="12"/>
-      <c r="E95" s="12"/>
-      <c r="F95" s="12"/>
-      <c r="G95" s="12"/>
-      <c r="H95" s="12"/>
-      <c r="I95" s="12"/>
-      <c r="J95" s="12"/>
       <c r="K95" s="6"/>
       <c r="L95" t="s">
         <v>59</v>
@@ -2671,17 +3404,9 @@
       </c>
     </row>
     <row r="96" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B96" s="13" t="s">
+      <c r="B96" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="C96" s="12"/>
-      <c r="D96" s="12"/>
-      <c r="E96" s="12"/>
-      <c r="F96" s="12"/>
-      <c r="G96" s="12"/>
-      <c r="H96" s="12"/>
-      <c r="I96" s="12"/>
-      <c r="J96" s="12"/>
       <c r="K96" s="6"/>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
@@ -2721,98 +3446,43 @@
       <c r="B102" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C102" s="12"/>
-      <c r="D102" s="12"/>
-      <c r="E102" s="12"/>
-      <c r="F102" s="12"/>
-      <c r="G102" s="12"/>
-      <c r="H102" s="12"/>
-      <c r="I102" s="12"/>
-      <c r="J102" s="12"/>
       <c r="K102" s="6"/>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B103" s="13" t="s">
+      <c r="B103" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="C103" s="12"/>
-      <c r="D103" s="12"/>
-      <c r="E103" s="12"/>
-      <c r="F103" s="12"/>
-      <c r="G103" s="12"/>
-      <c r="H103" s="12"/>
-      <c r="I103" s="12"/>
-      <c r="J103" s="12"/>
       <c r="K103" s="6"/>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B104" s="13" t="s">
+      <c r="B104" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="C104" s="12"/>
-      <c r="D104" s="12"/>
-      <c r="E104" s="12"/>
-      <c r="F104" s="12"/>
-      <c r="G104" s="12"/>
-      <c r="H104" s="12"/>
-      <c r="I104" s="12"/>
-      <c r="J104" s="12"/>
       <c r="K104" s="6"/>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B105" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C105" s="12"/>
-      <c r="D105" s="12"/>
-      <c r="E105" s="12"/>
-      <c r="F105" s="12"/>
-      <c r="G105" s="12"/>
-      <c r="H105" s="12"/>
-      <c r="I105" s="12"/>
-      <c r="J105" s="12"/>
       <c r="K105" s="6"/>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B106" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C106" s="12"/>
-      <c r="D106" s="12"/>
-      <c r="E106" s="12"/>
-      <c r="F106" s="12"/>
-      <c r="G106" s="12"/>
-      <c r="H106" s="12"/>
-      <c r="I106" s="12"/>
-      <c r="J106" s="12"/>
       <c r="K106" s="6"/>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B107" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C107" s="12"/>
-      <c r="D107" s="12"/>
-      <c r="E107" s="12"/>
-      <c r="F107" s="12"/>
-      <c r="G107" s="12"/>
-      <c r="H107" s="12"/>
-      <c r="I107" s="12"/>
-      <c r="J107" s="12"/>
       <c r="K107" s="6"/>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B108" s="13" t="s">
+      <c r="B108" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="C108" s="15"/>
-      <c r="D108" s="12"/>
-      <c r="E108" s="12"/>
-      <c r="F108" s="12"/>
-      <c r="G108" s="12"/>
-      <c r="H108" s="12"/>
-      <c r="I108" s="12"/>
-      <c r="J108" s="12"/>
+      <c r="C108" s="7"/>
       <c r="K108" s="6"/>
       <c r="L108" t="s">
         <v>59</v>
@@ -2825,14 +3495,6 @@
       <c r="B109" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C109" s="12"/>
-      <c r="D109" s="12"/>
-      <c r="E109" s="12"/>
-      <c r="F109" s="12"/>
-      <c r="G109" s="12"/>
-      <c r="H109" s="12"/>
-      <c r="I109" s="12"/>
-      <c r="J109" s="12"/>
       <c r="K109" s="6"/>
       <c r="M109" t="s">
         <v>113</v>
@@ -2842,14 +3504,6 @@
       <c r="B110" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C110" s="12"/>
-      <c r="D110" s="12"/>
-      <c r="E110" s="12"/>
-      <c r="F110" s="12"/>
-      <c r="G110" s="12"/>
-      <c r="H110" s="12"/>
-      <c r="I110" s="12"/>
-      <c r="J110" s="12"/>
       <c r="K110" s="6"/>
       <c r="M110" t="s">
         <v>114</v>
@@ -2859,107 +3513,51 @@
       <c r="B111" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C111" s="12"/>
-      <c r="D111" s="12"/>
-      <c r="E111" s="12"/>
-      <c r="F111" s="12"/>
-      <c r="G111" s="12"/>
-      <c r="H111" s="12"/>
-      <c r="I111" s="12"/>
-      <c r="J111" s="12"/>
       <c r="K111" s="6"/>
       <c r="M111" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B112" s="13" t="s">
+      <c r="B112" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="C112" s="12"/>
-      <c r="D112" s="12"/>
-      <c r="E112" s="12"/>
-      <c r="F112" s="12"/>
-      <c r="G112" s="12"/>
-      <c r="H112" s="12"/>
-      <c r="I112" s="12"/>
-      <c r="J112" s="12"/>
       <c r="K112" s="6"/>
       <c r="M112" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="113" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B113" s="13" t="s">
+      <c r="B113" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="C113" s="12"/>
-      <c r="D113" s="12"/>
-      <c r="E113" s="12"/>
-      <c r="F113" s="12"/>
-      <c r="G113" s="12"/>
-      <c r="H113" s="12"/>
-      <c r="I113" s="12"/>
-      <c r="J113" s="12"/>
       <c r="K113" s="6"/>
       <c r="M113" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="114" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B114" s="13" t="s">
+      <c r="B114" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="C114" s="12"/>
-      <c r="D114" s="12"/>
-      <c r="E114" s="12"/>
-      <c r="F114" s="12"/>
-      <c r="G114" s="12"/>
-      <c r="H114" s="12"/>
-      <c r="I114" s="12"/>
-      <c r="J114" s="12"/>
       <c r="K114" s="6"/>
     </row>
     <row r="115" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B115" s="13" t="s">
+      <c r="B115" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="C115" s="12"/>
-      <c r="D115" s="12"/>
-      <c r="E115" s="12"/>
-      <c r="F115" s="12"/>
-      <c r="G115" s="12"/>
-      <c r="H115" s="12"/>
-      <c r="I115" s="12"/>
-      <c r="J115" s="12"/>
       <c r="K115" s="6"/>
     </row>
     <row r="116" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B116" s="13" t="s">
+      <c r="B116" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="C116" s="12"/>
-      <c r="D116" s="12"/>
-      <c r="E116" s="12"/>
-      <c r="F116" s="12"/>
-      <c r="G116" s="12"/>
-      <c r="H116" s="12"/>
-      <c r="I116" s="12"/>
-      <c r="J116" s="12"/>
       <c r="K116" s="6"/>
     </row>
     <row r="117" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B117" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C117" s="12"/>
-      <c r="D117" s="12"/>
-      <c r="E117" s="12"/>
-      <c r="F117" s="12"/>
-      <c r="G117" s="12"/>
-      <c r="H117" s="12"/>
-      <c r="I117" s="12"/>
-      <c r="J117" s="12"/>
       <c r="K117" s="6"/>
     </row>
     <row r="118" spans="2:13" x14ac:dyDescent="0.25">
@@ -2976,228 +3574,12 @@
       <c r="J118" s="9"/>
       <c r="K118" s="10"/>
     </row>
-    <row r="119" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B119" s="12"/>
-      <c r="C119" s="12"/>
-      <c r="D119" s="12"/>
-      <c r="E119" s="12"/>
-      <c r="F119" s="12"/>
-      <c r="G119" s="12"/>
-      <c r="H119" s="12"/>
-      <c r="I119" s="12"/>
-      <c r="J119" s="12"/>
-      <c r="K119" s="12"/>
-    </row>
-    <row r="120" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B120" s="12"/>
-      <c r="C120" s="12"/>
-      <c r="D120" s="12"/>
-      <c r="E120" s="12"/>
-      <c r="F120" s="12"/>
-      <c r="G120" s="12"/>
-      <c r="H120" s="12"/>
-      <c r="I120" s="12"/>
-      <c r="J120" s="12"/>
-      <c r="K120" s="12"/>
-    </row>
-    <row r="121" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B121" s="12"/>
-      <c r="C121" s="12"/>
-      <c r="D121" s="12"/>
-      <c r="E121" s="12"/>
-      <c r="F121" s="12"/>
-      <c r="G121" s="12"/>
-      <c r="H121" s="12"/>
-      <c r="I121" s="12"/>
-      <c r="J121" s="12"/>
-      <c r="K121" s="12"/>
-    </row>
-    <row r="122" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B122" s="12"/>
-      <c r="C122" s="12"/>
-      <c r="D122" s="12"/>
-      <c r="E122" s="12"/>
-      <c r="F122" s="12"/>
-      <c r="G122" s="12"/>
-      <c r="H122" s="12"/>
-      <c r="I122" s="12"/>
-      <c r="J122" s="12"/>
-      <c r="K122" s="12"/>
-    </row>
-    <row r="123" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B123" s="12"/>
-      <c r="C123" s="12"/>
-      <c r="D123" s="12"/>
-      <c r="E123" s="12"/>
-      <c r="F123" s="12"/>
-      <c r="G123" s="12"/>
-      <c r="H123" s="12"/>
-      <c r="I123" s="12"/>
-      <c r="J123" s="12"/>
-      <c r="K123" s="12"/>
-    </row>
-    <row r="124" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B124" s="12"/>
-      <c r="C124" s="12"/>
-      <c r="D124" s="12"/>
-      <c r="E124" s="12"/>
-      <c r="F124" s="12"/>
-      <c r="G124" s="12"/>
-      <c r="H124" s="12"/>
-      <c r="I124" s="12"/>
-      <c r="J124" s="12"/>
-      <c r="K124" s="12"/>
-    </row>
-    <row r="125" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B125" s="12"/>
-      <c r="C125" s="12"/>
-      <c r="D125" s="12"/>
-      <c r="E125" s="12"/>
-      <c r="F125" s="12"/>
-      <c r="G125" s="12"/>
-      <c r="H125" s="12"/>
-      <c r="I125" s="12"/>
-      <c r="J125" s="12"/>
-      <c r="K125" s="12"/>
-    </row>
-    <row r="126" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B126" s="12"/>
-      <c r="C126" s="12"/>
-      <c r="D126" s="12"/>
-      <c r="E126" s="12"/>
-      <c r="F126" s="12"/>
-      <c r="G126" s="12"/>
-      <c r="H126" s="12"/>
-      <c r="I126" s="12"/>
-      <c r="J126" s="12"/>
-      <c r="K126" s="12"/>
-    </row>
-    <row r="127" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B127" s="12"/>
-      <c r="C127" s="12"/>
-      <c r="D127" s="12"/>
-      <c r="E127" s="12"/>
-      <c r="F127" s="12"/>
-      <c r="G127" s="12"/>
-      <c r="H127" s="12"/>
-      <c r="I127" s="12"/>
-      <c r="J127" s="12"/>
-      <c r="K127" s="12"/>
-    </row>
-    <row r="128" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B128" s="12"/>
-      <c r="C128" s="12"/>
-      <c r="D128" s="12"/>
-      <c r="E128" s="12"/>
-      <c r="F128" s="12"/>
-      <c r="G128" s="12"/>
-      <c r="H128" s="12"/>
-      <c r="I128" s="12"/>
-      <c r="J128" s="12"/>
-      <c r="K128" s="12"/>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B129" s="12"/>
-      <c r="C129" s="12"/>
-      <c r="D129" s="12"/>
-      <c r="E129" s="12"/>
-      <c r="F129" s="12"/>
-      <c r="G129" s="12"/>
-      <c r="H129" s="12"/>
-      <c r="I129" s="12"/>
-      <c r="J129" s="12"/>
-      <c r="K129" s="12"/>
-    </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B130" s="12"/>
-      <c r="C130" s="12"/>
-      <c r="D130" s="12"/>
-      <c r="E130" s="12"/>
-      <c r="F130" s="12"/>
-      <c r="G130" s="12"/>
-      <c r="H130" s="12"/>
-      <c r="I130" s="12"/>
-      <c r="J130" s="12"/>
-      <c r="K130" s="12"/>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B131" s="12"/>
-      <c r="C131" s="12"/>
-      <c r="D131" s="12"/>
-      <c r="E131" s="12"/>
-      <c r="F131" s="12"/>
-      <c r="G131" s="12"/>
-      <c r="H131" s="12"/>
-      <c r="I131" s="12"/>
-      <c r="J131" s="12"/>
-      <c r="K131" s="12"/>
-    </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B132" s="12"/>
-      <c r="C132" s="12"/>
-      <c r="D132" s="12"/>
-      <c r="E132" s="12"/>
-      <c r="F132" s="12"/>
-      <c r="G132" s="12"/>
-      <c r="H132" s="12"/>
-      <c r="I132" s="12"/>
-      <c r="J132" s="12"/>
-      <c r="K132" s="12"/>
-    </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B133" s="12"/>
-      <c r="C133" s="12"/>
-      <c r="D133" s="12"/>
-      <c r="E133" s="12"/>
-      <c r="F133" s="12"/>
-      <c r="G133" s="12"/>
-      <c r="H133" s="12"/>
-      <c r="I133" s="12"/>
-      <c r="J133" s="12"/>
-      <c r="K133" s="12"/>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B134" s="12"/>
-      <c r="C134" s="12"/>
-      <c r="D134" s="12"/>
-      <c r="E134" s="12"/>
-      <c r="F134" s="12"/>
-      <c r="G134" s="12"/>
-      <c r="H134" s="12"/>
-      <c r="I134" s="12"/>
-      <c r="J134" s="12"/>
-      <c r="K134" s="12"/>
-    </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B135" s="12"/>
-      <c r="C135" s="12"/>
-      <c r="D135" s="12"/>
-      <c r="E135" s="12"/>
-      <c r="F135" s="12"/>
-      <c r="G135" s="12"/>
-      <c r="H135" s="12"/>
-      <c r="I135" s="12"/>
-      <c r="J135" s="12"/>
-      <c r="K135" s="12"/>
-    </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B136" s="12"/>
-      <c r="C136" s="12"/>
-      <c r="D136" s="12"/>
-      <c r="E136" s="12"/>
-      <c r="F136" s="12"/>
-      <c r="G136" s="12"/>
-      <c r="H136" s="12"/>
-      <c r="I136" s="12"/>
-      <c r="J136" s="12"/>
-      <c r="K136" s="12"/>
-    </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B139" s="2" t="s">
         <v>109</v>
       </c>
@@ -3210,304 +3592,136 @@
       <c r="I139" s="3"/>
       <c r="J139" s="4"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B140" s="5"/>
-      <c r="C140" s="12"/>
-      <c r="D140" s="12"/>
-      <c r="E140" s="12"/>
-      <c r="F140" s="12"/>
-      <c r="G140" s="12"/>
-      <c r="H140" s="12"/>
-      <c r="I140" s="12"/>
       <c r="J140" s="6"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B141" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C141" s="12"/>
-      <c r="D141" s="12"/>
-      <c r="E141" s="12"/>
-      <c r="F141" s="12"/>
-      <c r="G141" s="12"/>
-      <c r="H141" s="12"/>
-      <c r="I141" s="12"/>
       <c r="J141" s="6"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B142" s="5"/>
-      <c r="C142" s="12"/>
-      <c r="D142" s="12"/>
-      <c r="E142" s="12"/>
-      <c r="F142" s="12"/>
-      <c r="G142" s="12"/>
-      <c r="H142" s="12"/>
-      <c r="I142" s="12"/>
       <c r="J142" s="6"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B143" s="13" t="s">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B143" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="C143" s="12"/>
-      <c r="D143" s="12"/>
-      <c r="E143" s="12"/>
-      <c r="F143" s="12"/>
-      <c r="G143" s="12"/>
-      <c r="H143" s="12"/>
-      <c r="I143" s="12"/>
       <c r="J143" s="6"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B144" s="5"/>
-      <c r="C144" s="12"/>
-      <c r="D144" s="12"/>
-      <c r="E144" s="12"/>
-      <c r="F144" s="12"/>
-      <c r="G144" s="12"/>
-      <c r="H144" s="12"/>
-      <c r="I144" s="12"/>
       <c r="J144" s="6"/>
     </row>
     <row r="145" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B145" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C145" s="12"/>
-      <c r="D145" s="12"/>
-      <c r="E145" s="12"/>
-      <c r="F145" s="12"/>
-      <c r="G145" s="12"/>
-      <c r="H145" s="12"/>
-      <c r="I145" s="12"/>
       <c r="J145" s="6"/>
     </row>
     <row r="146" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B146" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="C146" s="12"/>
-      <c r="D146" s="12"/>
-      <c r="E146" s="12"/>
-      <c r="F146" s="12"/>
-      <c r="G146" s="12"/>
-      <c r="H146" s="12"/>
-      <c r="I146" s="12"/>
       <c r="J146" s="6"/>
     </row>
     <row r="147" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B147" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="C147" s="12"/>
-      <c r="D147" s="12"/>
-      <c r="E147" s="12"/>
-      <c r="F147" s="12"/>
-      <c r="G147" s="12"/>
-      <c r="H147" s="12"/>
-      <c r="I147" s="12"/>
       <c r="J147" s="6"/>
     </row>
     <row r="148" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B148" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="C148" s="12"/>
-      <c r="D148" s="12"/>
-      <c r="E148" s="12"/>
-      <c r="F148" s="12"/>
-      <c r="G148" s="12"/>
-      <c r="H148" s="12"/>
-      <c r="I148" s="12"/>
       <c r="J148" s="6"/>
     </row>
     <row r="149" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B149" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C149" s="12"/>
-      <c r="D149" s="12"/>
-      <c r="E149" s="12"/>
-      <c r="F149" s="12"/>
-      <c r="G149" s="12"/>
-      <c r="H149" s="12"/>
-      <c r="I149" s="12"/>
       <c r="J149" s="6"/>
     </row>
     <row r="150" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B150" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="C150" s="12"/>
-      <c r="D150" s="12"/>
-      <c r="E150" s="12"/>
-      <c r="F150" s="12"/>
-      <c r="G150" s="12"/>
-      <c r="H150" s="12"/>
-      <c r="I150" s="12"/>
       <c r="J150" s="6"/>
     </row>
     <row r="151" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B151" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="C151" s="12"/>
-      <c r="D151" s="12"/>
-      <c r="E151" s="12"/>
-      <c r="F151" s="12"/>
-      <c r="G151" s="12"/>
-      <c r="H151" s="12"/>
-      <c r="I151" s="12"/>
       <c r="J151" s="6"/>
     </row>
     <row r="152" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B152" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="C152" s="12"/>
-      <c r="D152" s="12"/>
-      <c r="E152" s="12"/>
-      <c r="F152" s="12"/>
-      <c r="G152" s="12"/>
-      <c r="H152" s="12"/>
-      <c r="I152" s="12"/>
       <c r="J152" s="6"/>
     </row>
     <row r="153" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B153" s="5"/>
-      <c r="C153" s="12"/>
-      <c r="D153" s="12"/>
-      <c r="E153" s="12"/>
-      <c r="F153" s="12"/>
-      <c r="G153" s="12"/>
-      <c r="H153" s="12"/>
-      <c r="I153" s="12"/>
       <c r="J153" s="6"/>
     </row>
     <row r="154" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B154" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="C154" s="12"/>
-      <c r="D154" s="12"/>
-      <c r="E154" s="12"/>
-      <c r="F154" s="12"/>
-      <c r="G154" s="12"/>
-      <c r="H154" s="12"/>
-      <c r="I154" s="12"/>
       <c r="J154" s="6"/>
     </row>
     <row r="155" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B155" s="5"/>
-      <c r="C155" s="12"/>
-      <c r="D155" s="12"/>
-      <c r="E155" s="12"/>
-      <c r="F155" s="12"/>
-      <c r="G155" s="12"/>
-      <c r="H155" s="12"/>
-      <c r="I155" s="12"/>
       <c r="J155" s="6"/>
     </row>
     <row r="156" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B156" s="13" t="s">
+      <c r="B156" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="C156" s="12"/>
-      <c r="D156" s="12"/>
-      <c r="E156" s="12"/>
-      <c r="F156" s="12"/>
-      <c r="G156" s="12"/>
-      <c r="H156" s="12"/>
-      <c r="I156" s="12"/>
       <c r="J156" s="6"/>
     </row>
     <row r="157" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B157" s="13" t="s">
+      <c r="B157" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="C157" s="12"/>
-      <c r="D157" s="12"/>
-      <c r="E157" s="12"/>
-      <c r="F157" s="12"/>
-      <c r="G157" s="12"/>
-      <c r="H157" s="12"/>
-      <c r="I157" s="12"/>
       <c r="J157" s="6"/>
     </row>
     <row r="158" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B158" s="13" t="s">
+      <c r="B158" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="C158" s="12"/>
-      <c r="D158" s="12"/>
-      <c r="E158" s="12"/>
-      <c r="F158" s="12"/>
-      <c r="G158" s="12"/>
-      <c r="H158" s="12"/>
-      <c r="I158" s="12"/>
       <c r="J158" s="6"/>
     </row>
     <row r="159" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B159" s="13" t="s">
+      <c r="B159" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="C159" s="12"/>
-      <c r="D159" s="12"/>
-      <c r="E159" s="12"/>
-      <c r="F159" s="12"/>
-      <c r="G159" s="12"/>
-      <c r="H159" s="12"/>
-      <c r="I159" s="12"/>
       <c r="J159" s="6"/>
     </row>
     <row r="160" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B160" s="13"/>
-      <c r="C160" s="12"/>
-      <c r="D160" s="12"/>
-      <c r="E160" s="12"/>
-      <c r="F160" s="12"/>
-      <c r="G160" s="12"/>
-      <c r="H160" s="12"/>
-      <c r="I160" s="12"/>
+      <c r="B160" s="11"/>
       <c r="J160" s="6"/>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B161" s="13" t="s">
+      <c r="B161" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="C161" s="12"/>
-      <c r="D161" s="12"/>
-      <c r="E161" s="12"/>
-      <c r="F161" s="12"/>
-      <c r="G161" s="12"/>
-      <c r="H161" s="12"/>
-      <c r="I161" s="12"/>
       <c r="J161" s="6"/>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B162" s="13" t="s">
+      <c r="B162" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="C162" s="12"/>
-      <c r="D162" s="12"/>
-      <c r="E162" s="12"/>
-      <c r="F162" s="12"/>
-      <c r="G162" s="12"/>
-      <c r="H162" s="12"/>
-      <c r="I162" s="12"/>
       <c r="J162" s="6"/>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B163" s="13" t="s">
+      <c r="B163" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="C163" s="12"/>
-      <c r="D163" s="12"/>
-      <c r="E163" s="12"/>
-      <c r="F163" s="12"/>
-      <c r="G163" s="12"/>
-      <c r="H163" s="12"/>
-      <c r="I163" s="12"/>
       <c r="J163" s="6"/>
       <c r="K163" t="s">
         <v>59</v>
@@ -3517,16 +3731,9 @@
       </c>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B164" s="13" t="s">
+      <c r="B164" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="C164" s="12"/>
-      <c r="D164" s="12"/>
-      <c r="E164" s="12"/>
-      <c r="F164" s="12"/>
-      <c r="G164" s="12"/>
-      <c r="H164" s="12"/>
-      <c r="I164" s="12"/>
       <c r="J164" s="6"/>
       <c r="L164" t="s">
         <v>122</v>
@@ -3575,1283 +3782,246 @@
     </row>
     <row r="202" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B202" s="5"/>
-      <c r="C202" s="12"/>
-      <c r="D202" s="12"/>
-      <c r="E202" s="12"/>
-      <c r="F202" s="12"/>
-      <c r="G202" s="12"/>
-      <c r="H202" s="12"/>
-      <c r="I202" s="12"/>
-      <c r="J202" s="12"/>
-      <c r="K202" s="12"/>
-      <c r="L202" s="12"/>
-      <c r="M202" s="12"/>
-      <c r="N202" s="12"/>
-      <c r="O202" s="12"/>
-      <c r="P202" s="12"/>
-      <c r="Q202" s="12"/>
-      <c r="R202" s="12"/>
-      <c r="S202" s="12"/>
       <c r="T202" s="6"/>
     </row>
     <row r="203" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B203" s="5"/>
-      <c r="C203" s="12"/>
-      <c r="D203" s="12"/>
-      <c r="E203" s="12"/>
-      <c r="F203" s="12"/>
-      <c r="G203" s="12"/>
-      <c r="H203" s="12"/>
-      <c r="I203" s="12"/>
-      <c r="J203" s="12"/>
-      <c r="K203" s="12"/>
-      <c r="L203" s="12"/>
-      <c r="M203" s="12"/>
-      <c r="N203" s="12"/>
-      <c r="O203" s="12"/>
-      <c r="P203" s="12"/>
-      <c r="Q203" s="12"/>
-      <c r="R203" s="12"/>
-      <c r="S203" s="12"/>
       <c r="T203" s="6"/>
     </row>
     <row r="204" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B204" s="5"/>
-      <c r="C204" s="12"/>
-      <c r="D204" s="12"/>
-      <c r="E204" s="12"/>
-      <c r="F204" s="12"/>
-      <c r="G204" s="12"/>
-      <c r="H204" s="12"/>
-      <c r="I204" s="12"/>
-      <c r="J204" s="12"/>
-      <c r="K204" s="12"/>
-      <c r="L204" s="12"/>
-      <c r="M204" s="12"/>
-      <c r="N204" s="12"/>
-      <c r="O204" s="12"/>
-      <c r="P204" s="12"/>
-      <c r="Q204" s="12"/>
-      <c r="R204" s="12"/>
-      <c r="S204" s="12"/>
       <c r="T204" s="6"/>
     </row>
     <row r="205" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B205" s="5"/>
-      <c r="C205" s="12"/>
-      <c r="D205" s="12"/>
-      <c r="E205" s="12"/>
-      <c r="F205" s="12"/>
-      <c r="G205" s="12"/>
-      <c r="H205" s="12"/>
-      <c r="I205" s="12"/>
-      <c r="J205" s="12"/>
-      <c r="K205" s="12"/>
-      <c r="L205" s="12"/>
-      <c r="M205" s="12"/>
-      <c r="N205" s="12"/>
-      <c r="O205" s="12"/>
-      <c r="P205" s="12"/>
-      <c r="Q205" s="12"/>
-      <c r="R205" s="12"/>
-      <c r="S205" s="12"/>
       <c r="T205" s="6"/>
     </row>
     <row r="206" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B206" s="5"/>
-      <c r="C206" s="12"/>
-      <c r="D206" s="12"/>
-      <c r="E206" s="12"/>
-      <c r="F206" s="12"/>
-      <c r="G206" s="12"/>
-      <c r="H206" s="12"/>
-      <c r="I206" s="12"/>
-      <c r="J206" s="12"/>
-      <c r="K206" s="12"/>
-      <c r="L206" s="12"/>
-      <c r="M206" s="12"/>
-      <c r="N206" s="12"/>
-      <c r="O206" s="12"/>
-      <c r="P206" s="12"/>
-      <c r="Q206" s="12"/>
-      <c r="R206" s="12"/>
-      <c r="S206" s="12"/>
       <c r="T206" s="6"/>
     </row>
     <row r="207" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B207" s="5"/>
-      <c r="C207" s="12"/>
-      <c r="D207" s="12"/>
-      <c r="E207" s="12"/>
-      <c r="F207" s="12"/>
-      <c r="G207" s="12"/>
-      <c r="H207" s="12"/>
-      <c r="I207" s="12"/>
-      <c r="J207" s="12"/>
-      <c r="K207" s="12"/>
-      <c r="L207" s="12"/>
-      <c r="M207" s="12"/>
-      <c r="N207" s="12"/>
-      <c r="O207" s="12"/>
-      <c r="P207" s="12"/>
-      <c r="Q207" s="12"/>
-      <c r="R207" s="12"/>
-      <c r="S207" s="12"/>
       <c r="T207" s="6"/>
     </row>
     <row r="208" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B208" s="5"/>
-      <c r="C208" s="12"/>
-      <c r="D208" s="12"/>
-      <c r="E208" s="12"/>
-      <c r="F208" s="12"/>
-      <c r="G208" s="12"/>
-      <c r="H208" s="12"/>
-      <c r="I208" s="12"/>
-      <c r="J208" s="12"/>
-      <c r="K208" s="12"/>
-      <c r="L208" s="12"/>
-      <c r="M208" s="12"/>
-      <c r="N208" s="12"/>
-      <c r="O208" s="12"/>
-      <c r="P208" s="12"/>
-      <c r="Q208" s="12"/>
-      <c r="R208" s="12"/>
-      <c r="S208" s="12"/>
       <c r="T208" s="6"/>
     </row>
     <row r="209" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B209" s="5"/>
-      <c r="C209" s="12"/>
-      <c r="D209" s="12"/>
-      <c r="E209" s="12"/>
-      <c r="F209" s="12"/>
-      <c r="G209" s="12"/>
-      <c r="H209" s="12"/>
-      <c r="I209" s="12"/>
-      <c r="J209" s="12"/>
-      <c r="K209" s="12"/>
-      <c r="L209" s="12"/>
-      <c r="M209" s="12"/>
-      <c r="N209" s="12"/>
-      <c r="O209" s="12"/>
-      <c r="P209" s="12"/>
-      <c r="Q209" s="12"/>
-      <c r="R209" s="12"/>
-      <c r="S209" s="12"/>
       <c r="T209" s="6"/>
     </row>
     <row r="210" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B210" s="5"/>
-      <c r="C210" s="12"/>
-      <c r="D210" s="12"/>
-      <c r="E210" s="12"/>
-      <c r="F210" s="12"/>
-      <c r="G210" s="12"/>
-      <c r="H210" s="12"/>
-      <c r="I210" s="12"/>
-      <c r="J210" s="12"/>
-      <c r="K210" s="12"/>
-      <c r="L210" s="12"/>
-      <c r="M210" s="12"/>
-      <c r="N210" s="12"/>
-      <c r="O210" s="12"/>
-      <c r="P210" s="12"/>
-      <c r="Q210" s="12"/>
-      <c r="R210" s="12"/>
-      <c r="S210" s="12"/>
       <c r="T210" s="6"/>
     </row>
     <row r="211" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B211" s="5"/>
-      <c r="C211" s="12"/>
-      <c r="D211" s="12"/>
-      <c r="E211" s="12"/>
-      <c r="F211" s="12"/>
-      <c r="G211" s="12"/>
-      <c r="H211" s="12"/>
-      <c r="I211" s="12"/>
-      <c r="J211" s="12"/>
-      <c r="K211" s="12"/>
-      <c r="L211" s="12"/>
-      <c r="M211" s="12"/>
-      <c r="N211" s="12"/>
-      <c r="O211" s="12"/>
-      <c r="P211" s="12"/>
-      <c r="Q211" s="12"/>
-      <c r="R211" s="12"/>
-      <c r="S211" s="12"/>
       <c r="T211" s="6"/>
     </row>
     <row r="212" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B212" s="5"/>
-      <c r="C212" s="12"/>
-      <c r="D212" s="12"/>
-      <c r="E212" s="12"/>
-      <c r="F212" s="12"/>
-      <c r="G212" s="12"/>
-      <c r="H212" s="12"/>
-      <c r="I212" s="12"/>
-      <c r="J212" s="12"/>
-      <c r="K212" s="12"/>
-      <c r="L212" s="12"/>
-      <c r="M212" s="12"/>
-      <c r="N212" s="12"/>
-      <c r="O212" s="12"/>
-      <c r="P212" s="12"/>
-      <c r="Q212" s="12"/>
-      <c r="R212" s="12"/>
-      <c r="S212" s="12"/>
       <c r="T212" s="6"/>
     </row>
     <row r="213" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B213" s="5"/>
-      <c r="C213" s="12"/>
-      <c r="D213" s="12"/>
-      <c r="E213" s="12"/>
-      <c r="F213" s="12"/>
-      <c r="G213" s="12"/>
-      <c r="H213" s="12"/>
-      <c r="I213" s="12"/>
-      <c r="J213" s="12"/>
-      <c r="K213" s="12"/>
-      <c r="L213" s="12"/>
-      <c r="M213" s="12"/>
-      <c r="N213" s="12"/>
-      <c r="O213" s="12"/>
-      <c r="P213" s="12"/>
-      <c r="Q213" s="12"/>
-      <c r="R213" s="12"/>
-      <c r="S213" s="12"/>
       <c r="T213" s="6"/>
     </row>
     <row r="214" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B214" s="5"/>
-      <c r="C214" s="12"/>
-      <c r="D214" s="12"/>
-      <c r="E214" s="12"/>
-      <c r="F214" s="12"/>
-      <c r="G214" s="12"/>
-      <c r="H214" s="12"/>
-      <c r="I214" s="12"/>
-      <c r="J214" s="12"/>
-      <c r="K214" s="12"/>
-      <c r="L214" s="12"/>
-      <c r="M214" s="12"/>
-      <c r="N214" s="12"/>
-      <c r="O214" s="12"/>
-      <c r="P214" s="12"/>
-      <c r="Q214" s="12"/>
-      <c r="R214" s="12"/>
-      <c r="S214" s="12"/>
       <c r="T214" s="6"/>
     </row>
     <row r="215" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B215" s="5"/>
-      <c r="C215" s="12"/>
-      <c r="D215" s="12"/>
-      <c r="E215" s="12"/>
-      <c r="F215" s="12"/>
-      <c r="G215" s="12"/>
-      <c r="H215" s="12"/>
-      <c r="I215" s="12"/>
-      <c r="J215" s="12"/>
-      <c r="K215" s="12"/>
-      <c r="L215" s="12"/>
-      <c r="M215" s="12"/>
-      <c r="N215" s="12"/>
-      <c r="O215" s="12"/>
-      <c r="P215" s="12"/>
-      <c r="Q215" s="12"/>
-      <c r="R215" s="12"/>
-      <c r="S215" s="12"/>
       <c r="T215" s="6"/>
     </row>
     <row r="216" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B216" s="5"/>
-      <c r="C216" s="12"/>
-      <c r="D216" s="12"/>
-      <c r="E216" s="12"/>
-      <c r="F216" s="12"/>
-      <c r="G216" s="12"/>
-      <c r="H216" s="12"/>
-      <c r="I216" s="12"/>
-      <c r="J216" s="12"/>
-      <c r="K216" s="12"/>
-      <c r="L216" s="12"/>
-      <c r="M216" s="12"/>
-      <c r="N216" s="12"/>
-      <c r="O216" s="12"/>
-      <c r="P216" s="12"/>
-      <c r="Q216" s="12"/>
-      <c r="R216" s="12"/>
-      <c r="S216" s="12"/>
       <c r="T216" s="6"/>
     </row>
     <row r="217" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B217" s="5"/>
-      <c r="C217" s="12"/>
-      <c r="D217" s="12"/>
-      <c r="E217" s="12"/>
-      <c r="F217" s="12"/>
-      <c r="G217" s="12"/>
-      <c r="H217" s="12"/>
-      <c r="I217" s="12"/>
-      <c r="J217" s="12"/>
-      <c r="K217" s="12"/>
-      <c r="L217" s="12"/>
-      <c r="M217" s="12"/>
-      <c r="N217" s="12"/>
-      <c r="O217" s="12"/>
-      <c r="P217" s="12"/>
-      <c r="Q217" s="12"/>
-      <c r="R217" s="12"/>
-      <c r="S217" s="12"/>
       <c r="T217" s="6"/>
     </row>
     <row r="218" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B218" s="5"/>
-      <c r="C218" s="12"/>
-      <c r="D218" s="12"/>
-      <c r="E218" s="12"/>
-      <c r="F218" s="12"/>
-      <c r="G218" s="12"/>
-      <c r="H218" s="12"/>
-      <c r="I218" s="12"/>
-      <c r="J218" s="12"/>
-      <c r="K218" s="12"/>
-      <c r="L218" s="12"/>
-      <c r="M218" s="12"/>
-      <c r="N218" s="12"/>
-      <c r="O218" s="12"/>
-      <c r="P218" s="12"/>
-      <c r="Q218" s="12"/>
-      <c r="R218" s="12"/>
-      <c r="S218" s="12"/>
       <c r="T218" s="6"/>
     </row>
     <row r="219" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B219" s="5"/>
-      <c r="C219" s="12"/>
-      <c r="D219" s="12"/>
-      <c r="E219" s="12"/>
-      <c r="F219" s="12"/>
-      <c r="G219" s="12"/>
-      <c r="H219" s="12"/>
-      <c r="I219" s="12"/>
-      <c r="J219" s="12"/>
-      <c r="K219" s="12"/>
-      <c r="L219" s="12"/>
-      <c r="M219" s="12"/>
-      <c r="N219" s="12"/>
-      <c r="O219" s="12"/>
-      <c r="P219" s="12"/>
-      <c r="Q219" s="12"/>
-      <c r="R219" s="12"/>
-      <c r="S219" s="12"/>
       <c r="T219" s="6"/>
     </row>
     <row r="220" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B220" s="5"/>
-      <c r="C220" s="12"/>
-      <c r="D220" s="12"/>
-      <c r="E220" s="12"/>
-      <c r="F220" s="12"/>
-      <c r="G220" s="12"/>
-      <c r="H220" s="12"/>
-      <c r="I220" s="12"/>
-      <c r="J220" s="12"/>
-      <c r="K220" s="12"/>
-      <c r="L220" s="12"/>
-      <c r="M220" s="12"/>
-      <c r="N220" s="12"/>
-      <c r="O220" s="12"/>
-      <c r="P220" s="12"/>
-      <c r="Q220" s="12"/>
-      <c r="R220" s="12"/>
-      <c r="S220" s="12"/>
       <c r="T220" s="6"/>
     </row>
     <row r="221" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B221" s="5"/>
-      <c r="C221" s="12"/>
-      <c r="D221" s="12"/>
-      <c r="E221" s="12"/>
-      <c r="F221" s="12"/>
-      <c r="G221" s="12"/>
-      <c r="H221" s="12"/>
-      <c r="I221" s="12"/>
-      <c r="J221" s="12"/>
-      <c r="K221" s="12"/>
-      <c r="L221" s="12"/>
-      <c r="M221" s="12"/>
-      <c r="N221" s="12"/>
-      <c r="O221" s="12"/>
-      <c r="P221" s="12"/>
-      <c r="Q221" s="12"/>
-      <c r="R221" s="12"/>
-      <c r="S221" s="12"/>
       <c r="T221" s="6"/>
     </row>
     <row r="222" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B222" s="5"/>
-      <c r="C222" s="12"/>
-      <c r="D222" s="12"/>
-      <c r="E222" s="12"/>
-      <c r="F222" s="12"/>
-      <c r="G222" s="12"/>
-      <c r="H222" s="12"/>
-      <c r="I222" s="12"/>
-      <c r="J222" s="12"/>
-      <c r="K222" s="12"/>
-      <c r="L222" s="12"/>
-      <c r="M222" s="12"/>
-      <c r="N222" s="12"/>
-      <c r="O222" s="12"/>
-      <c r="P222" s="12"/>
-      <c r="Q222" s="12"/>
-      <c r="R222" s="12"/>
-      <c r="S222" s="12"/>
       <c r="T222" s="6"/>
     </row>
     <row r="223" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B223" s="5"/>
-      <c r="C223" s="12"/>
-      <c r="D223" s="12"/>
-      <c r="E223" s="12"/>
-      <c r="F223" s="12"/>
-      <c r="G223" s="12"/>
-      <c r="H223" s="12"/>
-      <c r="I223" s="12"/>
-      <c r="J223" s="12"/>
-      <c r="K223" s="12"/>
-      <c r="L223" s="12"/>
-      <c r="M223" s="12"/>
-      <c r="N223" s="12"/>
-      <c r="O223" s="12"/>
-      <c r="P223" s="12"/>
-      <c r="Q223" s="12"/>
-      <c r="R223" s="12"/>
-      <c r="S223" s="12"/>
       <c r="T223" s="6"/>
     </row>
     <row r="224" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B224" s="5"/>
-      <c r="C224" s="12"/>
-      <c r="D224" s="12"/>
-      <c r="E224" s="12"/>
-      <c r="F224" s="12"/>
-      <c r="G224" s="12"/>
-      <c r="H224" s="12"/>
-      <c r="I224" s="12"/>
-      <c r="J224" s="12"/>
-      <c r="K224" s="12"/>
-      <c r="L224" s="12"/>
-      <c r="M224" s="12"/>
-      <c r="N224" s="12"/>
-      <c r="O224" s="12"/>
-      <c r="P224" s="12"/>
-      <c r="Q224" s="12"/>
-      <c r="R224" s="12"/>
-      <c r="S224" s="12"/>
       <c r="T224" s="6"/>
     </row>
     <row r="225" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B225" s="5"/>
-      <c r="C225" s="12"/>
-      <c r="D225" s="12"/>
-      <c r="E225" s="12"/>
-      <c r="F225" s="12"/>
-      <c r="G225" s="12"/>
-      <c r="H225" s="12"/>
-      <c r="I225" s="12"/>
-      <c r="J225" s="12"/>
-      <c r="K225" s="12"/>
-      <c r="L225" s="12"/>
-      <c r="M225" s="12"/>
-      <c r="N225" s="12"/>
-      <c r="O225" s="12"/>
-      <c r="P225" s="12"/>
-      <c r="Q225" s="12"/>
-      <c r="R225" s="12"/>
-      <c r="S225" s="12"/>
       <c r="T225" s="6"/>
     </row>
     <row r="226" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B226" s="5"/>
-      <c r="C226" s="12"/>
-      <c r="D226" s="12"/>
-      <c r="E226" s="12"/>
-      <c r="F226" s="12"/>
-      <c r="G226" s="12"/>
-      <c r="H226" s="12"/>
-      <c r="I226" s="12"/>
-      <c r="J226" s="12"/>
-      <c r="K226" s="12"/>
-      <c r="L226" s="12"/>
-      <c r="M226" s="12"/>
-      <c r="N226" s="12"/>
-      <c r="O226" s="12"/>
-      <c r="P226" s="12"/>
-      <c r="Q226" s="12"/>
-      <c r="R226" s="12"/>
-      <c r="S226" s="12"/>
       <c r="T226" s="6"/>
     </row>
     <row r="227" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B227" s="5"/>
-      <c r="C227" s="12"/>
-      <c r="D227" s="12"/>
-      <c r="E227" s="12"/>
-      <c r="F227" s="12"/>
-      <c r="G227" s="12"/>
-      <c r="H227" s="12"/>
-      <c r="I227" s="12"/>
-      <c r="J227" s="12"/>
-      <c r="K227" s="12"/>
-      <c r="L227" s="12"/>
-      <c r="M227" s="12"/>
-      <c r="N227" s="12"/>
-      <c r="O227" s="12"/>
-      <c r="P227" s="12"/>
-      <c r="Q227" s="12"/>
-      <c r="R227" s="12"/>
-      <c r="S227" s="12"/>
       <c r="T227" s="6"/>
     </row>
     <row r="228" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B228" s="5"/>
-      <c r="C228" s="12"/>
-      <c r="D228" s="12"/>
-      <c r="E228" s="12"/>
-      <c r="F228" s="12"/>
-      <c r="G228" s="12"/>
-      <c r="H228" s="12"/>
-      <c r="I228" s="12"/>
-      <c r="J228" s="12"/>
-      <c r="K228" s="12"/>
-      <c r="L228" s="12"/>
-      <c r="M228" s="12"/>
-      <c r="N228" s="12"/>
-      <c r="O228" s="12"/>
-      <c r="P228" s="12"/>
-      <c r="Q228" s="12"/>
-      <c r="R228" s="12"/>
-      <c r="S228" s="12"/>
       <c r="T228" s="6"/>
     </row>
     <row r="229" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B229" s="5"/>
-      <c r="C229" s="12"/>
-      <c r="D229" s="12"/>
-      <c r="E229" s="12"/>
-      <c r="F229" s="12"/>
-      <c r="G229" s="12"/>
-      <c r="H229" s="12"/>
-      <c r="I229" s="12"/>
-      <c r="J229" s="12"/>
-      <c r="K229" s="12"/>
-      <c r="L229" s="12"/>
-      <c r="M229" s="12"/>
-      <c r="N229" s="12"/>
-      <c r="O229" s="12"/>
-      <c r="P229" s="12"/>
-      <c r="Q229" s="12"/>
-      <c r="R229" s="12"/>
-      <c r="S229" s="12"/>
       <c r="T229" s="6"/>
     </row>
     <row r="230" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B230" s="5"/>
-      <c r="C230" s="12"/>
-      <c r="D230" s="12"/>
-      <c r="E230" s="12"/>
-      <c r="F230" s="12"/>
-      <c r="G230" s="12"/>
-      <c r="H230" s="12"/>
-      <c r="I230" s="12"/>
-      <c r="J230" s="12"/>
-      <c r="K230" s="12"/>
-      <c r="L230" s="12"/>
-      <c r="M230" s="12"/>
-      <c r="N230" s="12"/>
-      <c r="O230" s="12"/>
-      <c r="P230" s="12"/>
-      <c r="Q230" s="12"/>
-      <c r="R230" s="12"/>
-      <c r="S230" s="12"/>
       <c r="T230" s="6"/>
     </row>
     <row r="231" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B231" s="5"/>
-      <c r="C231" s="12"/>
-      <c r="D231" s="12"/>
-      <c r="E231" s="12"/>
-      <c r="F231" s="12"/>
-      <c r="G231" s="12"/>
-      <c r="H231" s="12"/>
-      <c r="I231" s="12"/>
-      <c r="J231" s="12"/>
-      <c r="K231" s="12"/>
-      <c r="L231" s="12"/>
-      <c r="M231" s="12"/>
-      <c r="N231" s="12"/>
-      <c r="O231" s="12"/>
-      <c r="P231" s="12"/>
-      <c r="Q231" s="12"/>
-      <c r="R231" s="12"/>
-      <c r="S231" s="12"/>
       <c r="T231" s="6"/>
     </row>
     <row r="232" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B232" s="5"/>
-      <c r="C232" s="12"/>
-      <c r="D232" s="12"/>
-      <c r="E232" s="12"/>
-      <c r="F232" s="12"/>
-      <c r="G232" s="12"/>
-      <c r="H232" s="12"/>
-      <c r="I232" s="12"/>
-      <c r="J232" s="12"/>
-      <c r="K232" s="12"/>
-      <c r="L232" s="12"/>
-      <c r="M232" s="12"/>
-      <c r="N232" s="12"/>
-      <c r="O232" s="12"/>
-      <c r="P232" s="12"/>
-      <c r="Q232" s="12"/>
-      <c r="R232" s="12"/>
-      <c r="S232" s="12"/>
       <c r="T232" s="6"/>
     </row>
     <row r="233" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B233" s="5"/>
-      <c r="C233" s="12"/>
-      <c r="D233" s="12"/>
-      <c r="E233" s="12"/>
-      <c r="F233" s="12"/>
-      <c r="G233" s="12"/>
-      <c r="H233" s="12"/>
-      <c r="I233" s="12"/>
-      <c r="J233" s="12"/>
-      <c r="K233" s="12"/>
-      <c r="L233" s="12"/>
-      <c r="M233" s="12"/>
-      <c r="N233" s="12"/>
-      <c r="O233" s="12"/>
-      <c r="P233" s="12"/>
-      <c r="Q233" s="12"/>
-      <c r="R233" s="12"/>
-      <c r="S233" s="12"/>
       <c r="T233" s="6"/>
     </row>
     <row r="234" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B234" s="5"/>
-      <c r="C234" s="12"/>
-      <c r="D234" s="12"/>
-      <c r="E234" s="12"/>
-      <c r="F234" s="12"/>
-      <c r="G234" s="12"/>
-      <c r="H234" s="12"/>
-      <c r="I234" s="12"/>
-      <c r="J234" s="12"/>
-      <c r="K234" s="12"/>
-      <c r="L234" s="12"/>
-      <c r="M234" s="12"/>
-      <c r="N234" s="12"/>
-      <c r="O234" s="12"/>
-      <c r="P234" s="12"/>
-      <c r="Q234" s="12"/>
-      <c r="R234" s="12"/>
-      <c r="S234" s="12"/>
       <c r="T234" s="6"/>
     </row>
     <row r="235" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B235" s="5"/>
-      <c r="C235" s="12"/>
-      <c r="D235" s="12"/>
-      <c r="E235" s="12"/>
-      <c r="F235" s="12"/>
-      <c r="G235" s="12"/>
-      <c r="H235" s="12"/>
-      <c r="I235" s="12"/>
-      <c r="J235" s="12"/>
-      <c r="K235" s="12"/>
-      <c r="L235" s="12"/>
-      <c r="M235" s="12"/>
-      <c r="N235" s="12"/>
-      <c r="O235" s="12"/>
-      <c r="P235" s="12"/>
-      <c r="Q235" s="12"/>
-      <c r="R235" s="12"/>
-      <c r="S235" s="12"/>
       <c r="T235" s="6"/>
     </row>
     <row r="236" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B236" s="5"/>
-      <c r="C236" s="12"/>
-      <c r="D236" s="12"/>
-      <c r="E236" s="12"/>
-      <c r="F236" s="12"/>
-      <c r="G236" s="12"/>
-      <c r="H236" s="12"/>
-      <c r="I236" s="12"/>
-      <c r="J236" s="12"/>
-      <c r="K236" s="12"/>
-      <c r="L236" s="12"/>
-      <c r="M236" s="12"/>
-      <c r="N236" s="12"/>
-      <c r="O236" s="12"/>
-      <c r="P236" s="12"/>
-      <c r="Q236" s="12"/>
-      <c r="R236" s="12"/>
-      <c r="S236" s="12"/>
       <c r="T236" s="6"/>
     </row>
     <row r="237" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B237" s="5"/>
-      <c r="C237" s="12"/>
-      <c r="D237" s="12"/>
-      <c r="E237" s="12"/>
-      <c r="F237" s="12"/>
-      <c r="G237" s="12"/>
-      <c r="H237" s="12"/>
-      <c r="I237" s="12"/>
-      <c r="J237" s="12"/>
-      <c r="K237" s="12"/>
-      <c r="L237" s="12"/>
-      <c r="M237" s="12"/>
-      <c r="N237" s="12"/>
-      <c r="O237" s="12"/>
-      <c r="P237" s="12"/>
-      <c r="Q237" s="12"/>
-      <c r="R237" s="12"/>
-      <c r="S237" s="12"/>
       <c r="T237" s="6"/>
     </row>
     <row r="238" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B238" s="5"/>
-      <c r="C238" s="12"/>
-      <c r="D238" s="12"/>
-      <c r="E238" s="12"/>
-      <c r="F238" s="12"/>
-      <c r="G238" s="12"/>
-      <c r="H238" s="12"/>
-      <c r="I238" s="12"/>
-      <c r="J238" s="12"/>
-      <c r="K238" s="12"/>
-      <c r="L238" s="12"/>
-      <c r="M238" s="12"/>
-      <c r="N238" s="12"/>
-      <c r="O238" s="12"/>
-      <c r="P238" s="12"/>
-      <c r="Q238" s="12"/>
-      <c r="R238" s="12"/>
-      <c r="S238" s="12"/>
       <c r="T238" s="6"/>
     </row>
     <row r="239" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B239" s="5"/>
-      <c r="C239" s="12"/>
-      <c r="D239" s="12"/>
-      <c r="E239" s="12"/>
-      <c r="F239" s="12"/>
-      <c r="G239" s="12"/>
-      <c r="H239" s="12"/>
-      <c r="I239" s="12"/>
-      <c r="J239" s="12"/>
-      <c r="K239" s="12"/>
-      <c r="L239" s="12"/>
-      <c r="M239" s="12"/>
-      <c r="N239" s="12"/>
-      <c r="O239" s="12"/>
-      <c r="P239" s="12"/>
-      <c r="Q239" s="12"/>
-      <c r="R239" s="12"/>
-      <c r="S239" s="12"/>
       <c r="T239" s="6"/>
     </row>
     <row r="240" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B240" s="5"/>
-      <c r="C240" s="12"/>
-      <c r="D240" s="12"/>
-      <c r="E240" s="12"/>
-      <c r="F240" s="12"/>
-      <c r="G240" s="12"/>
-      <c r="H240" s="12"/>
-      <c r="I240" s="12"/>
-      <c r="J240" s="12"/>
-      <c r="K240" s="12"/>
-      <c r="L240" s="12"/>
-      <c r="M240" s="12"/>
-      <c r="N240" s="12"/>
-      <c r="O240" s="12"/>
-      <c r="P240" s="12"/>
-      <c r="Q240" s="12"/>
-      <c r="R240" s="12"/>
-      <c r="S240" s="12"/>
       <c r="T240" s="6"/>
     </row>
     <row r="241" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B241" s="5"/>
-      <c r="C241" s="12"/>
-      <c r="D241" s="12"/>
-      <c r="E241" s="12"/>
-      <c r="F241" s="12"/>
-      <c r="G241" s="12"/>
-      <c r="H241" s="12"/>
-      <c r="I241" s="12"/>
-      <c r="J241" s="12"/>
-      <c r="K241" s="12"/>
-      <c r="L241" s="12"/>
-      <c r="M241" s="12"/>
-      <c r="N241" s="12"/>
-      <c r="O241" s="12"/>
-      <c r="P241" s="12"/>
-      <c r="Q241" s="12"/>
-      <c r="R241" s="12"/>
-      <c r="S241" s="12"/>
       <c r="T241" s="6"/>
     </row>
     <row r="242" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B242" s="5"/>
-      <c r="C242" s="12"/>
-      <c r="D242" s="12"/>
-      <c r="E242" s="12"/>
-      <c r="F242" s="12"/>
-      <c r="G242" s="12"/>
-      <c r="H242" s="12"/>
-      <c r="I242" s="12"/>
-      <c r="J242" s="12"/>
-      <c r="K242" s="12"/>
-      <c r="L242" s="12"/>
-      <c r="M242" s="12"/>
-      <c r="N242" s="12"/>
-      <c r="O242" s="12"/>
-      <c r="P242" s="12"/>
-      <c r="Q242" s="12"/>
-      <c r="R242" s="12"/>
-      <c r="S242" s="12"/>
       <c r="T242" s="6"/>
     </row>
     <row r="243" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B243" s="5"/>
-      <c r="C243" s="12"/>
-      <c r="D243" s="12"/>
-      <c r="E243" s="12"/>
-      <c r="F243" s="12"/>
-      <c r="G243" s="12"/>
-      <c r="H243" s="12"/>
-      <c r="I243" s="12"/>
-      <c r="J243" s="12"/>
-      <c r="K243" s="12"/>
-      <c r="L243" s="12"/>
-      <c r="M243" s="12"/>
-      <c r="N243" s="12"/>
-      <c r="O243" s="12"/>
-      <c r="P243" s="12"/>
-      <c r="Q243" s="12"/>
-      <c r="R243" s="12"/>
-      <c r="S243" s="12"/>
       <c r="T243" s="6"/>
     </row>
     <row r="244" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B244" s="5"/>
-      <c r="C244" s="12"/>
-      <c r="D244" s="12"/>
-      <c r="E244" s="12"/>
-      <c r="F244" s="12"/>
-      <c r="G244" s="12"/>
-      <c r="H244" s="12"/>
-      <c r="I244" s="12"/>
-      <c r="J244" s="12"/>
-      <c r="K244" s="12"/>
-      <c r="L244" s="12"/>
-      <c r="M244" s="12"/>
-      <c r="N244" s="12"/>
-      <c r="O244" s="12"/>
-      <c r="P244" s="12"/>
-      <c r="Q244" s="12"/>
-      <c r="R244" s="12"/>
-      <c r="S244" s="12"/>
       <c r="T244" s="6"/>
     </row>
     <row r="245" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B245" s="5"/>
-      <c r="C245" s="12"/>
-      <c r="D245" s="12"/>
-      <c r="E245" s="12"/>
-      <c r="F245" s="12"/>
-      <c r="G245" s="12"/>
-      <c r="H245" s="12"/>
-      <c r="I245" s="12"/>
-      <c r="J245" s="12"/>
-      <c r="K245" s="12"/>
-      <c r="L245" s="12"/>
-      <c r="M245" s="12"/>
-      <c r="N245" s="12"/>
-      <c r="O245" s="12"/>
-      <c r="P245" s="12"/>
-      <c r="Q245" s="12"/>
-      <c r="R245" s="12"/>
-      <c r="S245" s="12"/>
       <c r="T245" s="6"/>
     </row>
     <row r="246" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B246" s="5"/>
-      <c r="C246" s="12"/>
-      <c r="D246" s="12"/>
-      <c r="E246" s="12"/>
-      <c r="F246" s="12"/>
-      <c r="G246" s="12"/>
-      <c r="H246" s="12"/>
-      <c r="I246" s="12"/>
-      <c r="J246" s="12"/>
-      <c r="K246" s="12"/>
-      <c r="L246" s="12"/>
-      <c r="M246" s="12"/>
-      <c r="N246" s="12"/>
-      <c r="O246" s="12"/>
-      <c r="P246" s="12"/>
-      <c r="Q246" s="12"/>
-      <c r="R246" s="12"/>
-      <c r="S246" s="12"/>
       <c r="T246" s="6"/>
     </row>
     <row r="247" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B247" s="5"/>
-      <c r="C247" s="12"/>
-      <c r="D247" s="12"/>
-      <c r="E247" s="12"/>
-      <c r="F247" s="12"/>
-      <c r="G247" s="12"/>
-      <c r="H247" s="12"/>
-      <c r="I247" s="12"/>
-      <c r="J247" s="12"/>
-      <c r="K247" s="12"/>
-      <c r="L247" s="12"/>
-      <c r="M247" s="12"/>
-      <c r="N247" s="12"/>
-      <c r="O247" s="12"/>
-      <c r="P247" s="12"/>
-      <c r="Q247" s="12"/>
-      <c r="R247" s="12"/>
-      <c r="S247" s="12"/>
       <c r="T247" s="6"/>
     </row>
     <row r="248" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B248" s="5"/>
-      <c r="C248" s="12"/>
-      <c r="D248" s="12"/>
-      <c r="E248" s="12"/>
-      <c r="F248" s="12"/>
-      <c r="G248" s="12"/>
-      <c r="H248" s="12"/>
-      <c r="I248" s="12"/>
-      <c r="J248" s="12"/>
-      <c r="K248" s="12"/>
-      <c r="L248" s="12"/>
-      <c r="M248" s="12"/>
-      <c r="N248" s="12"/>
-      <c r="O248" s="12"/>
-      <c r="P248" s="12"/>
-      <c r="Q248" s="12"/>
-      <c r="R248" s="12"/>
-      <c r="S248" s="12"/>
       <c r="T248" s="6"/>
     </row>
     <row r="249" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B249" s="5"/>
-      <c r="C249" s="12"/>
-      <c r="D249" s="12"/>
-      <c r="E249" s="12"/>
-      <c r="F249" s="12"/>
-      <c r="G249" s="12"/>
-      <c r="H249" s="12"/>
-      <c r="I249" s="12"/>
-      <c r="J249" s="12"/>
-      <c r="K249" s="12"/>
-      <c r="L249" s="12"/>
-      <c r="M249" s="12"/>
-      <c r="N249" s="12"/>
-      <c r="O249" s="12"/>
-      <c r="P249" s="12"/>
-      <c r="Q249" s="12"/>
-      <c r="R249" s="12"/>
-      <c r="S249" s="12"/>
       <c r="T249" s="6"/>
     </row>
     <row r="250" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B250" s="5"/>
-      <c r="C250" s="12"/>
-      <c r="D250" s="12"/>
-      <c r="E250" s="12"/>
-      <c r="F250" s="12"/>
-      <c r="G250" s="12"/>
-      <c r="H250" s="12"/>
-      <c r="I250" s="12"/>
-      <c r="J250" s="12"/>
-      <c r="K250" s="12"/>
-      <c r="L250" s="12"/>
-      <c r="M250" s="12"/>
-      <c r="N250" s="12"/>
-      <c r="O250" s="12"/>
-      <c r="P250" s="12"/>
-      <c r="Q250" s="12"/>
-      <c r="R250" s="12"/>
-      <c r="S250" s="12"/>
       <c r="T250" s="6"/>
     </row>
     <row r="251" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B251" s="5"/>
-      <c r="C251" s="12"/>
-      <c r="D251" s="12"/>
-      <c r="E251" s="12"/>
-      <c r="F251" s="12"/>
-      <c r="G251" s="12"/>
-      <c r="H251" s="12"/>
-      <c r="I251" s="12"/>
-      <c r="J251" s="12"/>
-      <c r="K251" s="12"/>
-      <c r="L251" s="12"/>
-      <c r="M251" s="12"/>
-      <c r="N251" s="12"/>
-      <c r="O251" s="12"/>
-      <c r="P251" s="12"/>
-      <c r="Q251" s="12"/>
-      <c r="R251" s="12"/>
-      <c r="S251" s="12"/>
       <c r="T251" s="6"/>
     </row>
     <row r="252" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B252" s="5"/>
-      <c r="C252" s="12"/>
-      <c r="D252" s="12"/>
-      <c r="E252" s="12"/>
-      <c r="F252" s="12"/>
-      <c r="G252" s="12"/>
-      <c r="H252" s="12"/>
-      <c r="I252" s="12"/>
-      <c r="J252" s="12"/>
-      <c r="K252" s="12"/>
-      <c r="L252" s="12"/>
-      <c r="M252" s="12"/>
-      <c r="N252" s="12"/>
-      <c r="O252" s="12"/>
-      <c r="P252" s="12"/>
-      <c r="Q252" s="12"/>
-      <c r="R252" s="12"/>
-      <c r="S252" s="12"/>
       <c r="T252" s="6"/>
     </row>
     <row r="253" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B253" s="5"/>
-      <c r="C253" s="12"/>
-      <c r="D253" s="12"/>
-      <c r="E253" s="12"/>
-      <c r="F253" s="12"/>
-      <c r="G253" s="12"/>
-      <c r="H253" s="12"/>
-      <c r="I253" s="12"/>
-      <c r="J253" s="12"/>
-      <c r="K253" s="12"/>
-      <c r="L253" s="12"/>
-      <c r="M253" s="12"/>
-      <c r="N253" s="12"/>
-      <c r="O253" s="12"/>
-      <c r="P253" s="12"/>
-      <c r="Q253" s="12"/>
-      <c r="R253" s="12"/>
-      <c r="S253" s="12"/>
       <c r="T253" s="6"/>
     </row>
     <row r="254" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B254" s="5"/>
-      <c r="C254" s="12"/>
-      <c r="D254" s="12"/>
-      <c r="E254" s="12"/>
-      <c r="F254" s="12"/>
-      <c r="G254" s="12"/>
-      <c r="H254" s="12"/>
-      <c r="I254" s="12"/>
-      <c r="J254" s="12"/>
-      <c r="K254" s="12"/>
-      <c r="L254" s="12"/>
-      <c r="M254" s="12"/>
-      <c r="N254" s="12"/>
-      <c r="O254" s="12"/>
-      <c r="P254" s="12"/>
-      <c r="Q254" s="12"/>
-      <c r="R254" s="12"/>
-      <c r="S254" s="12"/>
       <c r="T254" s="6"/>
     </row>
     <row r="255" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B255" s="5"/>
-      <c r="C255" s="12"/>
-      <c r="D255" s="12"/>
-      <c r="E255" s="12"/>
-      <c r="F255" s="12"/>
-      <c r="G255" s="12"/>
-      <c r="H255" s="12"/>
-      <c r="I255" s="12"/>
-      <c r="J255" s="12"/>
-      <c r="K255" s="12"/>
-      <c r="L255" s="12"/>
-      <c r="M255" s="12"/>
-      <c r="N255" s="12"/>
-      <c r="O255" s="12"/>
-      <c r="P255" s="12"/>
-      <c r="Q255" s="12"/>
-      <c r="R255" s="12"/>
-      <c r="S255" s="12"/>
       <c r="T255" s="6"/>
     </row>
     <row r="256" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B256" s="5"/>
-      <c r="C256" s="12"/>
-      <c r="D256" s="12"/>
-      <c r="E256" s="12"/>
-      <c r="F256" s="12"/>
-      <c r="G256" s="12"/>
-      <c r="H256" s="12"/>
-      <c r="I256" s="12"/>
-      <c r="J256" s="12"/>
-      <c r="K256" s="12"/>
-      <c r="L256" s="12"/>
-      <c r="M256" s="12"/>
-      <c r="N256" s="12"/>
-      <c r="O256" s="12"/>
-      <c r="P256" s="12"/>
-      <c r="Q256" s="12"/>
-      <c r="R256" s="12"/>
-      <c r="S256" s="12"/>
       <c r="T256" s="6"/>
     </row>
     <row r="257" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B257" s="5"/>
-      <c r="C257" s="12"/>
-      <c r="D257" s="12"/>
-      <c r="E257" s="12"/>
-      <c r="F257" s="12"/>
-      <c r="G257" s="12"/>
-      <c r="H257" s="12"/>
-      <c r="I257" s="12"/>
-      <c r="J257" s="12"/>
-      <c r="K257" s="12"/>
-      <c r="L257" s="12"/>
-      <c r="M257" s="12"/>
-      <c r="N257" s="12"/>
-      <c r="O257" s="12"/>
-      <c r="P257" s="12"/>
-      <c r="Q257" s="12"/>
-      <c r="R257" s="12"/>
-      <c r="S257" s="12"/>
       <c r="T257" s="6"/>
     </row>
     <row r="258" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B258" s="5"/>
-      <c r="C258" s="12"/>
-      <c r="D258" s="12"/>
-      <c r="E258" s="12"/>
-      <c r="F258" s="12"/>
-      <c r="G258" s="12"/>
-      <c r="H258" s="12"/>
-      <c r="I258" s="12"/>
-      <c r="J258" s="12"/>
-      <c r="K258" s="12"/>
-      <c r="L258" s="12"/>
-      <c r="M258" s="12"/>
-      <c r="N258" s="12"/>
-      <c r="O258" s="12"/>
-      <c r="P258" s="12"/>
-      <c r="Q258" s="12"/>
-      <c r="R258" s="12"/>
-      <c r="S258" s="12"/>
       <c r="T258" s="6"/>
     </row>
     <row r="259" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B259" s="5"/>
-      <c r="C259" s="12"/>
-      <c r="D259" s="12"/>
-      <c r="E259" s="12"/>
-      <c r="F259" s="12"/>
-      <c r="G259" s="12"/>
-      <c r="H259" s="12"/>
-      <c r="I259" s="12"/>
-      <c r="J259" s="12"/>
-      <c r="K259" s="12"/>
-      <c r="L259" s="12"/>
-      <c r="M259" s="12"/>
-      <c r="N259" s="12"/>
-      <c r="O259" s="12"/>
-      <c r="P259" s="12"/>
-      <c r="Q259" s="12"/>
-      <c r="R259" s="12"/>
-      <c r="S259" s="12"/>
       <c r="T259" s="6"/>
     </row>
     <row r="260" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B260" s="5"/>
-      <c r="C260" s="12"/>
-      <c r="D260" s="12"/>
-      <c r="E260" s="12"/>
-      <c r="F260" s="12"/>
-      <c r="G260" s="12"/>
-      <c r="H260" s="12"/>
-      <c r="I260" s="12"/>
-      <c r="J260" s="12"/>
-      <c r="K260" s="12"/>
-      <c r="L260" s="12"/>
-      <c r="M260" s="12"/>
-      <c r="N260" s="12"/>
-      <c r="O260" s="12"/>
-      <c r="P260" s="12"/>
-      <c r="Q260" s="12"/>
-      <c r="R260" s="12"/>
-      <c r="S260" s="12"/>
       <c r="T260" s="6"/>
     </row>
     <row r="261" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B261" s="5"/>
-      <c r="C261" s="12"/>
-      <c r="D261" s="12"/>
-      <c r="E261" s="12"/>
-      <c r="F261" s="12"/>
-      <c r="G261" s="12"/>
-      <c r="H261" s="12"/>
-      <c r="I261" s="12"/>
-      <c r="J261" s="12"/>
-      <c r="K261" s="12"/>
-      <c r="L261" s="12"/>
-      <c r="M261" s="12"/>
-      <c r="N261" s="12"/>
-      <c r="O261" s="12"/>
-      <c r="P261" s="12"/>
-      <c r="Q261" s="12"/>
-      <c r="R261" s="12"/>
-      <c r="S261" s="12"/>
       <c r="T261" s="6"/>
     </row>
     <row r="262" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B262" s="5"/>
-      <c r="C262" s="12"/>
-      <c r="D262" s="12"/>
-      <c r="E262" s="12"/>
-      <c r="F262" s="12"/>
-      <c r="G262" s="12"/>
-      <c r="H262" s="12"/>
-      <c r="I262" s="12"/>
-      <c r="J262" s="12"/>
-      <c r="K262" s="12"/>
-      <c r="L262" s="12"/>
-      <c r="M262" s="12"/>
-      <c r="N262" s="12"/>
-      <c r="O262" s="12"/>
-      <c r="P262" s="12"/>
-      <c r="Q262" s="12"/>
-      <c r="R262" s="12"/>
-      <c r="S262" s="12"/>
       <c r="T262" s="6"/>
     </row>
     <row r="263" spans="2:20" x14ac:dyDescent="0.25">
@@ -4879,4 +4049,1467 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30367E9F-B9AE-4E33-BC99-8952D9AF1D37}">
+  <dimension ref="A2:O286"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A189" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q204" sqref="Q204"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="4"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B11" s="5"/>
+      <c r="C11" t="s">
+        <v>2</v>
+      </c>
+      <c r="L11" s="6"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B12" s="5"/>
+      <c r="D12" t="s">
+        <v>3</v>
+      </c>
+      <c r="L12" s="6"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B13" s="5"/>
+      <c r="E13" t="s">
+        <v>4</v>
+      </c>
+      <c r="L13" s="6"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B14" s="5"/>
+      <c r="F14" t="s">
+        <v>5</v>
+      </c>
+      <c r="L14" s="6"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B15" s="5"/>
+      <c r="G15" t="s">
+        <v>6</v>
+      </c>
+      <c r="L15" s="6"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B16" s="5"/>
+      <c r="F16" t="s">
+        <v>7</v>
+      </c>
+      <c r="L16" s="6"/>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B17" s="5"/>
+      <c r="G17" t="s">
+        <v>8</v>
+      </c>
+      <c r="L17" s="6"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B18" s="5"/>
+      <c r="H18" t="s">
+        <v>9</v>
+      </c>
+      <c r="L18" s="6"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B19" s="5"/>
+      <c r="H19" t="s">
+        <v>10</v>
+      </c>
+      <c r="L19" s="6"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B20" s="5"/>
+      <c r="H20" t="s">
+        <v>11</v>
+      </c>
+      <c r="L20" s="6"/>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B21" s="5"/>
+      <c r="G21" t="s">
+        <v>12</v>
+      </c>
+      <c r="L21" s="6"/>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B22" s="5"/>
+      <c r="H22" t="s">
+        <v>13</v>
+      </c>
+      <c r="L22" s="6"/>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B23" s="5"/>
+      <c r="H23" t="s">
+        <v>14</v>
+      </c>
+      <c r="L23" s="6"/>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B24" s="5"/>
+      <c r="H24" t="s">
+        <v>15</v>
+      </c>
+      <c r="L24" s="6"/>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B25" s="5"/>
+      <c r="G25" t="s">
+        <v>16</v>
+      </c>
+      <c r="L25" s="6"/>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B26" s="5"/>
+      <c r="H26" t="s">
+        <v>17</v>
+      </c>
+      <c r="L26" s="6"/>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B27" s="5"/>
+      <c r="H27" t="s">
+        <v>18</v>
+      </c>
+      <c r="L27" s="6"/>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B28" s="5"/>
+      <c r="H28" t="s">
+        <v>19</v>
+      </c>
+      <c r="L28" s="6"/>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B29" s="5"/>
+      <c r="H29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L29" s="6"/>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B30" s="5"/>
+      <c r="G30" t="s">
+        <v>21</v>
+      </c>
+      <c r="L30" s="6"/>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B31" s="5"/>
+      <c r="H31" t="s">
+        <v>22</v>
+      </c>
+      <c r="L31" s="6"/>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B32" s="5"/>
+      <c r="H32" t="s">
+        <v>23</v>
+      </c>
+      <c r="L32" s="6"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B33" s="5"/>
+      <c r="H33" t="s">
+        <v>24</v>
+      </c>
+      <c r="L33" s="6"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B34" s="5"/>
+      <c r="G34" t="s">
+        <v>25</v>
+      </c>
+      <c r="L34" s="6"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B35" s="5"/>
+      <c r="H35" t="s">
+        <v>26</v>
+      </c>
+      <c r="L35" s="6"/>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B36" s="5"/>
+      <c r="H36" t="s">
+        <v>27</v>
+      </c>
+      <c r="L36" s="6"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B37" s="5"/>
+      <c r="H37" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L37" s="6"/>
+      <c r="M37" t="s">
+        <v>59</v>
+      </c>
+      <c r="N37" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B38" s="5"/>
+      <c r="G38" t="s">
+        <v>29</v>
+      </c>
+      <c r="L38" s="6"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B39" s="5"/>
+      <c r="H39" t="s">
+        <v>30</v>
+      </c>
+      <c r="L39" s="6"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B40" s="5"/>
+      <c r="H40" t="s">
+        <v>31</v>
+      </c>
+      <c r="L40" s="6"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B41" s="5"/>
+      <c r="G41" t="s">
+        <v>32</v>
+      </c>
+      <c r="L41" s="6"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B42" s="5"/>
+      <c r="H42" t="s">
+        <v>33</v>
+      </c>
+      <c r="L42" s="6"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B43" s="5"/>
+      <c r="H43" t="s">
+        <v>34</v>
+      </c>
+      <c r="L43" s="6"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B44" s="5"/>
+      <c r="H44" t="s">
+        <v>35</v>
+      </c>
+      <c r="L44" s="6"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B45" s="5"/>
+      <c r="H45" t="s">
+        <v>36</v>
+      </c>
+      <c r="L45" s="6"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B46" s="5"/>
+      <c r="G46" t="s">
+        <v>37</v>
+      </c>
+      <c r="L46" s="6"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B47" s="5"/>
+      <c r="H47" t="s">
+        <v>38</v>
+      </c>
+      <c r="L47" s="6"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B48" s="5"/>
+      <c r="H48" t="s">
+        <v>39</v>
+      </c>
+      <c r="L48" s="6"/>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B49" s="5"/>
+      <c r="H49" t="s">
+        <v>40</v>
+      </c>
+      <c r="L49" s="6"/>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B50" s="5"/>
+      <c r="H50" t="s">
+        <v>41</v>
+      </c>
+      <c r="L50" s="6"/>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B51" s="5"/>
+      <c r="G51" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="L51" s="6"/>
+      <c r="M51" t="s">
+        <v>59</v>
+      </c>
+      <c r="N51" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B52" s="5"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="L52" s="6"/>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B53" s="5"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="L53" s="6"/>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B54" s="5"/>
+      <c r="G54" t="s">
+        <v>42</v>
+      </c>
+      <c r="L54" s="6"/>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B55" s="5"/>
+      <c r="G55" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="L55" s="6"/>
+      <c r="M55" t="s">
+        <v>59</v>
+      </c>
+      <c r="N55" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B56" s="5"/>
+      <c r="H56" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="L56" s="6"/>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B57" s="5"/>
+      <c r="H57" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="L57" s="6"/>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B58" s="5"/>
+      <c r="G58" t="s">
+        <v>43</v>
+      </c>
+      <c r="L58" s="6"/>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B59" s="5"/>
+      <c r="H59" t="s">
+        <v>44</v>
+      </c>
+      <c r="L59" s="6"/>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B60" s="5"/>
+      <c r="H60" t="s">
+        <v>45</v>
+      </c>
+      <c r="L60" s="6"/>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B61" s="5"/>
+      <c r="H61" t="s">
+        <v>46</v>
+      </c>
+      <c r="L61" s="6"/>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B62" s="8"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="9"/>
+      <c r="H62" s="9"/>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c r="L62" s="10"/>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B66" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="3"/>
+      <c r="H66" s="3"/>
+      <c r="I66" s="3"/>
+      <c r="J66" s="3"/>
+      <c r="K66" s="3"/>
+      <c r="L66" s="3"/>
+      <c r="M66" s="4"/>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B67" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="M67" s="6"/>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B68" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="M68" s="6"/>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B69" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="M69" s="6"/>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B70" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="M70" s="6"/>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B71" s="5"/>
+      <c r="M71" s="6"/>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B72" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="M72" s="6"/>
+      <c r="N72" t="s">
+        <v>59</v>
+      </c>
+      <c r="O72" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B73" s="5"/>
+      <c r="M73" s="6"/>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B74" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="M74" s="6"/>
+      <c r="N74" t="s">
+        <v>59</v>
+      </c>
+      <c r="O74" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B75" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="M75" s="6"/>
+      <c r="O75" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B76" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="M76" s="6"/>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B77" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="M77" s="6"/>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B78" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="M78" s="6"/>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B79" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="M79" s="6"/>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B80" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="M80" s="6"/>
+    </row>
+    <row r="81" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B81" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="M81" s="6"/>
+    </row>
+    <row r="82" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B82" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="M82" s="6"/>
+    </row>
+    <row r="83" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B83" s="5"/>
+      <c r="M83" s="6"/>
+    </row>
+    <row r="84" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B84" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="M84" s="6"/>
+    </row>
+    <row r="85" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B85" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="M85" s="6"/>
+    </row>
+    <row r="86" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B86" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="M86" s="6"/>
+    </row>
+    <row r="87" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B87" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="M87" s="6"/>
+    </row>
+    <row r="88" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B88" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="M88" s="6"/>
+    </row>
+    <row r="89" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B89" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="M89" s="6"/>
+    </row>
+    <row r="90" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B90" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="M90" s="6"/>
+      <c r="N90" t="s">
+        <v>59</v>
+      </c>
+      <c r="O90" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="91" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B91" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="M91" s="6"/>
+      <c r="O91" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="92" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B92" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="M92" s="6"/>
+    </row>
+    <row r="93" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B93" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="M93" s="6"/>
+    </row>
+    <row r="94" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B94" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="M94" s="6"/>
+    </row>
+    <row r="95" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B95" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="M95" s="6"/>
+    </row>
+    <row r="96" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B96" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="M96" s="6"/>
+    </row>
+    <row r="97" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B97" s="5"/>
+      <c r="M97" s="6"/>
+    </row>
+    <row r="98" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B98" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="M98" s="6"/>
+    </row>
+    <row r="99" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B99" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="M99" s="6"/>
+    </row>
+    <row r="100" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B100" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="M100" s="6"/>
+    </row>
+    <row r="101" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B101" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="M101" s="6"/>
+    </row>
+    <row r="102" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B102" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="M102" s="6"/>
+    </row>
+    <row r="103" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B103" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="M103" s="6"/>
+    </row>
+    <row r="104" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B104" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="M104" s="6"/>
+    </row>
+    <row r="105" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B105" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="M105" s="6"/>
+    </row>
+    <row r="106" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B106" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="M106" s="6"/>
+    </row>
+    <row r="107" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B107" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="M107" s="6"/>
+    </row>
+    <row r="108" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B108" s="5"/>
+      <c r="M108" s="6"/>
+    </row>
+    <row r="109" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B109" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="M109" s="6"/>
+    </row>
+    <row r="110" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B110" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="M110" s="6"/>
+    </row>
+    <row r="111" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B111" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="M111" s="6"/>
+    </row>
+    <row r="112" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B112" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="M112" s="6"/>
+    </row>
+    <row r="113" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B113" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="M113" s="6"/>
+    </row>
+    <row r="114" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B114" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="M114" s="6"/>
+    </row>
+    <row r="115" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B115" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="M115" s="6"/>
+      <c r="N115" t="s">
+        <v>59</v>
+      </c>
+      <c r="O115" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="116" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B116" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="M116" s="6"/>
+    </row>
+    <row r="117" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B117" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="M117" s="6"/>
+    </row>
+    <row r="118" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B118" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="M118" s="6"/>
+    </row>
+    <row r="119" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B119" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="M119" s="6"/>
+    </row>
+    <row r="120" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B120" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="M120" s="6"/>
+    </row>
+    <row r="121" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B121" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="M121" s="6"/>
+    </row>
+    <row r="122" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B122" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="M122" s="6"/>
+    </row>
+    <row r="123" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B123" s="5"/>
+      <c r="M123" s="6"/>
+    </row>
+    <row r="124" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B124" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="M124" s="6"/>
+    </row>
+    <row r="125" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B125" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="M125" s="6"/>
+    </row>
+    <row r="126" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B126" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="M126" s="6"/>
+    </row>
+    <row r="127" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B127" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="M127" s="6"/>
+    </row>
+    <row r="128" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B128" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="M128" s="6"/>
+      <c r="N128" t="s">
+        <v>59</v>
+      </c>
+      <c r="O128" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="129" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B129" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="M129" s="6"/>
+    </row>
+    <row r="130" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B130" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="M130" s="6"/>
+    </row>
+    <row r="131" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B131" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="M131" s="6"/>
+    </row>
+    <row r="132" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B132" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="M132" s="6"/>
+    </row>
+    <row r="133" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B133" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="M133" s="6"/>
+    </row>
+    <row r="134" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B134" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="M134" s="6"/>
+    </row>
+    <row r="135" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B135" s="5"/>
+      <c r="M135" s="6"/>
+    </row>
+    <row r="136" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B136" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="M136" s="6"/>
+    </row>
+    <row r="137" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B137" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="M137" s="6"/>
+    </row>
+    <row r="138" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B138" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="M138" s="6"/>
+    </row>
+    <row r="139" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B139" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="M139" s="6"/>
+    </row>
+    <row r="140" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B140" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="M140" s="6"/>
+    </row>
+    <row r="141" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B141" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="M141" s="6"/>
+    </row>
+    <row r="142" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B142" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="M142" s="6"/>
+      <c r="N142" t="s">
+        <v>59</v>
+      </c>
+      <c r="O142" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="143" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B143" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="M143" s="6"/>
+    </row>
+    <row r="144" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B144" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="M144" s="6"/>
+    </row>
+    <row r="145" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B145" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="M145" s="6"/>
+    </row>
+    <row r="146" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B146" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="M146" s="6"/>
+    </row>
+    <row r="147" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B147" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="M147" s="6"/>
+    </row>
+    <row r="148" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B148" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="M148" s="6"/>
+    </row>
+    <row r="149" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B149" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="M149" s="6"/>
+    </row>
+    <row r="150" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B150" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="M150" s="6"/>
+    </row>
+    <row r="151" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B151" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="M151" s="6"/>
+    </row>
+    <row r="152" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B152" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="M152" s="6"/>
+    </row>
+    <row r="153" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B153" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="M153" s="6"/>
+    </row>
+    <row r="154" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B154" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="M154" s="6"/>
+    </row>
+    <row r="155" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B155" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="M155" s="6"/>
+    </row>
+    <row r="156" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B156" s="5"/>
+      <c r="M156" s="6"/>
+    </row>
+    <row r="157" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B157" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="M157" s="6"/>
+    </row>
+    <row r="158" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B158" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="M158" s="6"/>
+    </row>
+    <row r="159" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B159" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="M159" s="6"/>
+    </row>
+    <row r="160" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B160" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="M160" s="6"/>
+    </row>
+    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B161" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="M161" s="6"/>
+    </row>
+    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B162" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C162" s="9"/>
+      <c r="D162" s="9"/>
+      <c r="E162" s="9"/>
+      <c r="F162" s="9"/>
+      <c r="G162" s="9"/>
+      <c r="H162" s="9"/>
+      <c r="I162" s="9"/>
+      <c r="J162" s="9"/>
+      <c r="K162" s="9"/>
+      <c r="L162" s="9"/>
+      <c r="M162" s="10"/>
+    </row>
+    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>60</v>
+      </c>
+      <c r="N165" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B166" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C166" s="3"/>
+      <c r="D166" s="3"/>
+      <c r="E166" s="3"/>
+      <c r="F166" s="3"/>
+      <c r="G166" s="3"/>
+      <c r="H166" s="3"/>
+      <c r="I166" s="3"/>
+      <c r="J166" s="3"/>
+      <c r="K166" s="3"/>
+      <c r="L166" s="4"/>
+    </row>
+    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A167" s="7"/>
+      <c r="B167" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="L167" s="6"/>
+      <c r="M167" t="s">
+        <v>59</v>
+      </c>
+      <c r="N167" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A168" s="7"/>
+      <c r="B168" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="L168" s="6"/>
+    </row>
+    <row r="169" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B169" s="5"/>
+      <c r="L169" s="6"/>
+    </row>
+    <row r="170" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B170" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="L170" s="6"/>
+    </row>
+    <row r="171" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B171" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="L171" s="6"/>
+    </row>
+    <row r="172" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B172" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="L172" s="6"/>
+    </row>
+    <row r="173" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B173" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="L173" s="6"/>
+    </row>
+    <row r="174" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B174" s="5"/>
+      <c r="L174" s="6"/>
+    </row>
+    <row r="175" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B175" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="L175" s="6"/>
+      <c r="M175" t="s">
+        <v>59</v>
+      </c>
+      <c r="N175" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="176" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B176" s="5"/>
+      <c r="L176" s="6"/>
+    </row>
+    <row r="177" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B177" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="L177" s="6"/>
+    </row>
+    <row r="178" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B178" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="L178" s="6"/>
+    </row>
+    <row r="179" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B179" s="5"/>
+      <c r="L179" s="6"/>
+    </row>
+    <row r="180" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B180" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="L180" s="6"/>
+    </row>
+    <row r="181" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B181" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="L181" s="6"/>
+      <c r="M181" t="s">
+        <v>59</v>
+      </c>
+      <c r="N181" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="182" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B182" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="L182" s="6"/>
+      <c r="N182" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="183" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B183" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C183" s="9"/>
+      <c r="D183" s="9"/>
+      <c r="E183" s="9"/>
+      <c r="F183" s="9"/>
+      <c r="G183" s="9"/>
+      <c r="H183" s="9"/>
+      <c r="I183" s="9"/>
+      <c r="J183" s="9"/>
+      <c r="K183" s="9"/>
+      <c r="L183" s="10"/>
+      <c r="N183" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="186" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="187" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B187" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C187" s="3"/>
+      <c r="D187" s="3"/>
+      <c r="E187" s="3"/>
+      <c r="F187" s="3"/>
+      <c r="G187" s="3"/>
+      <c r="H187" s="4"/>
+    </row>
+    <row r="188" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B188" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="H188" s="6"/>
+    </row>
+    <row r="189" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B189" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="H189" s="6"/>
+    </row>
+    <row r="190" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B190" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="H190" s="6"/>
+    </row>
+    <row r="191" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B191" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H191" s="6"/>
+    </row>
+    <row r="192" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B192" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C192" s="9"/>
+      <c r="D192" s="9"/>
+      <c r="E192" s="9"/>
+      <c r="F192" s="9"/>
+      <c r="G192" s="9"/>
+      <c r="H192" s="10"/>
+    </row>
+    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>221</v>
+      </c>
+      <c r="M195" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B196" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C196" s="3"/>
+      <c r="D196" s="3"/>
+      <c r="E196" s="3"/>
+      <c r="F196" s="3"/>
+      <c r="G196" s="3"/>
+      <c r="H196" s="3"/>
+      <c r="I196" s="3"/>
+      <c r="J196" s="4"/>
+    </row>
+    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B197" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="J197" s="6"/>
+    </row>
+    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B198" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="J198" s="6"/>
+    </row>
+    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B199" s="5"/>
+      <c r="J199" s="6"/>
+    </row>
+    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B200" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="J200" s="6"/>
+    </row>
+    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B201" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="J201" s="6"/>
+    </row>
+    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B202" s="5"/>
+      <c r="J202" s="6"/>
+    </row>
+    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B203" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="J203" s="6"/>
+    </row>
+    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B204" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="J204" s="6"/>
+    </row>
+    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B205" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="J205" s="6"/>
+    </row>
+    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B206" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="J206" s="6"/>
+    </row>
+    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B207" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J207" s="6"/>
+    </row>
+    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B208" s="5"/>
+      <c r="J208" s="6"/>
+    </row>
+    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B209" s="5"/>
+      <c r="J209" s="6"/>
+    </row>
+    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B210" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="J210" s="6"/>
+    </row>
+    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B211" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="J211" s="6"/>
+      <c r="K211" t="s">
+        <v>59</v>
+      </c>
+      <c r="L211" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B212" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J212" s="6"/>
+    </row>
+    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B213" s="5"/>
+      <c r="J213" s="6"/>
+    </row>
+    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B214" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="J214" s="6"/>
+      <c r="K214" t="s">
+        <v>59</v>
+      </c>
+      <c r="L214" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B215" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="J215" s="6"/>
+    </row>
+    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B216" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J216" s="6"/>
+    </row>
+    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B217" s="5"/>
+      <c r="J217" s="6"/>
+    </row>
+    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B218" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C218" s="9"/>
+      <c r="D218" s="9"/>
+      <c r="E218" s="9"/>
+      <c r="F218" s="9"/>
+      <c r="G218" s="9"/>
+      <c r="H218" s="9"/>
+      <c r="I218" s="9"/>
+      <c r="J218" s="10"/>
+    </row>
+    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="253" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B253" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="286" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B286" t="s">
+        <v>243</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/me/6.Component-Communication-Using-Events.xlsx
+++ b/me/6.Component-Communication-Using-Events.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\LightningWebComponent\me\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C61FED3-75C5-49FC-B643-202BB43F5EE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40E99BCC-17A8-4F96-BC4A-0F6A15150AEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dispatching And Handling Events" sheetId="1" r:id="rId1"/>
     <sheet name="CommunicationdependentComponent" sheetId="2" r:id="rId2"/>
+    <sheet name="Share Javascript Code" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="274">
   <si>
     <t>構成</t>
   </si>
@@ -1015,6 +1016,108 @@
   </si>
   <si>
     <t>roomName and roomCapacity are displayed</t>
+  </si>
+  <si>
+    <t>This part discus about share a common Javascript code among the different Lightning Web Component</t>
+  </si>
+  <si>
+    <t>bmi</t>
+  </si>
+  <si>
+    <t>bmi.js</t>
+  </si>
+  <si>
+    <t>LightningWebComponent\LWC\force-app\main\default\lwc\bmi\bmi.js</t>
+  </si>
+  <si>
+    <t>const getBMI = function (weightInKg, heightInMt) {</t>
+  </si>
+  <si>
+    <t>    try {</t>
+  </si>
+  <si>
+    <t>        return weightInKg / (heightInMt * heightInMt);</t>
+  </si>
+  <si>
+    <t>    } catch (error) {</t>
+  </si>
+  <si>
+    <t>        return undefined;</t>
+  </si>
+  <si>
+    <t>export{getBMI};</t>
+  </si>
+  <si>
+    <t>LightningWebComponent\LWC\force-app\main\default\lwc\bmiCalculator\bmiCalculator.js</t>
+  </si>
+  <si>
+    <t>import { LightningElement, track } from 'lwc';</t>
+  </si>
+  <si>
+    <t>import {getBMI} from 'c/bmi';</t>
+  </si>
+  <si>
+    <t>export default class BmiCalculator extends LightningElement {</t>
+  </si>
+  <si>
+    <t>    cardTitle = 'BMI Calculator';</t>
+  </si>
+  <si>
+    <t>    weight;</t>
+  </si>
+  <si>
+    <t>    height;</t>
+  </si>
+  <si>
+    <t>    onWeightChange(event){</t>
+  </si>
+  <si>
+    <t>        this.weight = parseFloat(event.target.value);</t>
+  </si>
+  <si>
+    <t>    onHeightChange(event){</t>
+  </si>
+  <si>
+    <t>        this.height = parseFloat(event.target.value);</t>
+  </si>
+  <si>
+    <t>    calculateBMI(){</t>
+  </si>
+  <si>
+    <t>    get bmiValue(){</t>
+  </si>
+  <si>
+    <t>        if(this.bmi === undefined){</t>
+  </si>
+  <si>
+    <t>            return "";</t>
+  </si>
+  <si>
+    <t>        }</t>
+  </si>
+  <si>
+    <t>        return `Your BMI is: ${this.bmi}`;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        this.bmi = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>getBMI(this.weight, this.height);</t>
+    </r>
+  </si>
+  <si>
+    <t>    bmi;</t>
+  </si>
+  <si>
+    <t>result</t>
   </si>
 </sst>
 </file>
@@ -1149,7 +1252,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1163,6 +1266,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2549,6 +2663,196 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>25605</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBAE1C94-F95D-8B5A-A1B2-80205798CB0B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="714375" y="20097751"/>
+          <a:ext cx="11325225" cy="4883354"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>235324</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>74835</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A78180D-CC44-A6D0-19C6-AA17D7FADADF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="681318" y="25603200"/>
+          <a:ext cx="11051241" cy="5142135"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>123265</xdr:colOff>
+      <xdr:row>163</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>302559</xdr:colOff>
+      <xdr:row>190</xdr:row>
+      <xdr:rowOff>66595</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A21C328-F0FD-2277-28BE-FC567A66AA26}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="728383" y="31163559"/>
+          <a:ext cx="11071411" cy="5098036"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>414617</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>168088</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>179294</xdr:colOff>
+      <xdr:row>180</xdr:row>
+      <xdr:rowOff>145676</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAFC8729-B84A-EE76-9923-E59237D9902F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1019735" y="31029088"/>
+          <a:ext cx="7631206" cy="3406588"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -4055,8 +4359,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30367E9F-B9AE-4E33-BC99-8952D9AF1D37}">
   <dimension ref="A2:O286"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A189" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q204" sqref="Q204"/>
+    <sheetView topLeftCell="A49" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S60" sqref="S60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5512,4 +5816,1346 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D7DECDF-DBC3-48CA-B70D-19B6C0605137}">
+  <dimension ref="A2:N163"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A115" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A135" sqref="A135"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="14"/>
+      <c r="B6" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="17"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="14"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="19"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="14"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="19"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="14"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="19"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="14"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="19"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="14"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="19"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="14"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="19"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="14"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="19"/>
+      <c r="M13" t="s">
+        <v>59</v>
+      </c>
+      <c r="N13" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="14"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="19"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="14"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="19"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="14"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="19"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="14"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="19"/>
+      <c r="M17" t="s">
+        <v>59</v>
+      </c>
+      <c r="N17" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="14"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="19"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="14"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="19"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="14"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="19"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="14"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="19"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="14"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="19"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="14"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="19"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="14"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="19"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="14"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="19"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="14"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="19"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="14"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="19"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="14"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="19"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="14"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="19"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="14"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="19"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="14"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="19"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="14"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="19"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="14"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="I33" s="14"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="14"/>
+      <c r="L33" s="19"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="14"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="I34" s="14"/>
+      <c r="J34" s="14"/>
+      <c r="K34" s="14"/>
+      <c r="L34" s="19"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="14"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="I35" s="14"/>
+      <c r="J35" s="14"/>
+      <c r="K35" s="14"/>
+      <c r="L35" s="19"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="14"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="14"/>
+      <c r="K36" s="14"/>
+      <c r="L36" s="19"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="14"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="I37" s="14"/>
+      <c r="J37" s="14"/>
+      <c r="K37" s="14"/>
+      <c r="L37" s="19"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="14"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="I38" s="14"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="14"/>
+      <c r="L38" s="19"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="14"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H39" s="14"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="14"/>
+      <c r="K39" s="14"/>
+      <c r="L39" s="19"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="14"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="I40" s="14"/>
+      <c r="J40" s="14"/>
+      <c r="K40" s="14"/>
+      <c r="L40" s="19"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="14"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="I41" s="14"/>
+      <c r="J41" s="14"/>
+      <c r="K41" s="14"/>
+      <c r="L41" s="19"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="14"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="I42" s="14"/>
+      <c r="J42" s="14"/>
+      <c r="K42" s="14"/>
+      <c r="L42" s="19"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="14"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="I43" s="14"/>
+      <c r="J43" s="14"/>
+      <c r="K43" s="14"/>
+      <c r="L43" s="19"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="14"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="H44" s="14"/>
+      <c r="I44" s="14"/>
+      <c r="J44" s="14"/>
+      <c r="K44" s="14"/>
+      <c r="L44" s="19"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="14"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="14"/>
+      <c r="H45" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="I45" s="14"/>
+      <c r="J45" s="14"/>
+      <c r="K45" s="14"/>
+      <c r="L45" s="19"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="14"/>
+      <c r="B46" s="18"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+      <c r="G46" s="14"/>
+      <c r="H46" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="I46" s="14"/>
+      <c r="J46" s="14"/>
+      <c r="K46" s="14"/>
+      <c r="L46" s="19"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="14"/>
+      <c r="B47" s="18"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c r="G47" s="14"/>
+      <c r="H47" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="I47" s="14"/>
+      <c r="J47" s="14"/>
+      <c r="K47" s="14"/>
+      <c r="L47" s="19"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="14"/>
+      <c r="B48" s="18"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c r="G48" s="14"/>
+      <c r="H48" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="I48" s="14"/>
+      <c r="J48" s="14"/>
+      <c r="K48" s="14"/>
+      <c r="L48" s="19"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="14"/>
+      <c r="B49" s="18"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="H49" s="14"/>
+      <c r="I49" s="14"/>
+      <c r="J49" s="14"/>
+      <c r="K49" s="14"/>
+      <c r="L49" s="19"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="14"/>
+      <c r="B50" s="18"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="14"/>
+      <c r="H50" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="I50" s="14"/>
+      <c r="J50" s="14"/>
+      <c r="K50" s="14"/>
+      <c r="L50" s="19"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" s="14"/>
+      <c r="B51" s="18"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+      <c r="G51" s="14"/>
+      <c r="H51" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="I51" s="14"/>
+      <c r="J51" s="14"/>
+      <c r="K51" s="14"/>
+      <c r="L51" s="19"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" s="14"/>
+      <c r="B52" s="18"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
+      <c r="G52" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="H52" s="14"/>
+      <c r="I52" s="14"/>
+      <c r="J52" s="14"/>
+      <c r="K52" s="14"/>
+      <c r="L52" s="19"/>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" s="14"/>
+      <c r="B53" s="18"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
+      <c r="G53" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="H53" s="14"/>
+      <c r="I53" s="14"/>
+      <c r="J53" s="14"/>
+      <c r="K53" s="14"/>
+      <c r="L53" s="19"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" s="14"/>
+      <c r="B54" s="18"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
+      <c r="G54" s="14"/>
+      <c r="H54" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="I54" s="14"/>
+      <c r="J54" s="14"/>
+      <c r="K54" s="14"/>
+      <c r="L54" s="19"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" s="14"/>
+      <c r="B55" s="18"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14"/>
+      <c r="G55" s="14"/>
+      <c r="H55" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="I55" s="14"/>
+      <c r="J55" s="14"/>
+      <c r="K55" s="14"/>
+      <c r="L55" s="19"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" s="14"/>
+      <c r="B56" s="18"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
+      <c r="G56" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="H56" s="14"/>
+      <c r="I56" s="14"/>
+      <c r="J56" s="14"/>
+      <c r="K56" s="14"/>
+      <c r="L56" s="19"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" s="14"/>
+      <c r="B57" s="18"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14"/>
+      <c r="G57" s="14"/>
+      <c r="H57" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="I57" s="14"/>
+      <c r="J57" s="14"/>
+      <c r="K57" s="14"/>
+      <c r="L57" s="19"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" s="14"/>
+      <c r="B58" s="18"/>
+      <c r="C58" s="14"/>
+      <c r="D58" s="14"/>
+      <c r="E58" s="14"/>
+      <c r="F58" s="14"/>
+      <c r="G58" s="14"/>
+      <c r="H58" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="I58" s="14"/>
+      <c r="J58" s="14"/>
+      <c r="K58" s="14"/>
+      <c r="L58" s="19"/>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" s="14"/>
+      <c r="B59" s="18"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="14"/>
+      <c r="G59" s="14"/>
+      <c r="H59" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I59" s="14"/>
+      <c r="J59" s="14"/>
+      <c r="K59" s="14"/>
+      <c r="L59" s="19"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" s="14"/>
+      <c r="B60" s="20"/>
+      <c r="C60" s="21"/>
+      <c r="D60" s="21"/>
+      <c r="E60" s="21"/>
+      <c r="F60" s="21"/>
+      <c r="G60" s="21"/>
+      <c r="H60" s="21"/>
+      <c r="I60" s="21"/>
+      <c r="J60" s="21"/>
+      <c r="K60" s="21"/>
+      <c r="L60" s="22"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B64" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="4"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B65" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="C65" s="23"/>
+      <c r="D65" s="23"/>
+      <c r="E65" s="23"/>
+      <c r="F65" s="23"/>
+      <c r="G65" s="6"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B66" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="C66" s="23"/>
+      <c r="D66" s="23"/>
+      <c r="E66" s="23"/>
+      <c r="F66" s="23"/>
+      <c r="G66" s="6"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B67" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="C67" s="23"/>
+      <c r="D67" s="23"/>
+      <c r="E67" s="23"/>
+      <c r="F67" s="23"/>
+      <c r="G67" s="6"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B68" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="C68" s="23"/>
+      <c r="D68" s="23"/>
+      <c r="E68" s="23"/>
+      <c r="F68" s="23"/>
+      <c r="G68" s="6"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B69" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C69" s="23"/>
+      <c r="D69" s="23"/>
+      <c r="E69" s="23"/>
+      <c r="F69" s="23"/>
+      <c r="G69" s="6"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B70" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C70" s="23"/>
+      <c r="D70" s="23"/>
+      <c r="E70" s="23"/>
+      <c r="F70" s="23"/>
+      <c r="G70" s="6"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B71" s="5"/>
+      <c r="C71" s="23"/>
+      <c r="D71" s="23"/>
+      <c r="E71" s="23"/>
+      <c r="F71" s="23"/>
+      <c r="G71" s="6"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B72" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="C72" s="9"/>
+      <c r="D72" s="9"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="9"/>
+      <c r="G72" s="10"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B76" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C76" s="3"/>
+      <c r="D76" s="3"/>
+      <c r="E76" s="3"/>
+      <c r="F76" s="3"/>
+      <c r="G76" s="3"/>
+      <c r="H76" s="4"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B77" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="C77" s="23"/>
+      <c r="D77" s="23"/>
+      <c r="E77" s="23"/>
+      <c r="F77" s="23"/>
+      <c r="G77" s="23"/>
+      <c r="H77" s="6"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B78" s="5"/>
+      <c r="C78" s="23"/>
+      <c r="D78" s="23"/>
+      <c r="E78" s="23"/>
+      <c r="F78" s="23"/>
+      <c r="G78" s="23"/>
+      <c r="H78" s="6"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B79" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="C79" s="23"/>
+      <c r="D79" s="23"/>
+      <c r="E79" s="23"/>
+      <c r="F79" s="23"/>
+      <c r="G79" s="23"/>
+      <c r="H79" s="6"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B80" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="C80" s="23"/>
+      <c r="D80" s="23"/>
+      <c r="E80" s="23"/>
+      <c r="F80" s="23"/>
+      <c r="G80" s="23"/>
+      <c r="H80" s="6"/>
+    </row>
+    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B81" s="5"/>
+      <c r="C81" s="23"/>
+      <c r="D81" s="23"/>
+      <c r="E81" s="23"/>
+      <c r="F81" s="23"/>
+      <c r="G81" s="23"/>
+      <c r="H81" s="6"/>
+    </row>
+    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B82" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="C82" s="23"/>
+      <c r="D82" s="23"/>
+      <c r="E82" s="23"/>
+      <c r="F82" s="23"/>
+      <c r="G82" s="23"/>
+      <c r="H82" s="6"/>
+    </row>
+    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B83" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="C83" s="23"/>
+      <c r="D83" s="23"/>
+      <c r="E83" s="23"/>
+      <c r="F83" s="23"/>
+      <c r="G83" s="23"/>
+      <c r="H83" s="6"/>
+    </row>
+    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B84" s="5"/>
+      <c r="C84" s="23"/>
+      <c r="D84" s="23"/>
+      <c r="E84" s="23"/>
+      <c r="F84" s="23"/>
+      <c r="G84" s="23"/>
+      <c r="H84" s="6"/>
+    </row>
+    <row r="85" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B85" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="C85" s="23"/>
+      <c r="D85" s="23"/>
+      <c r="E85" s="23"/>
+      <c r="F85" s="23"/>
+      <c r="G85" s="23"/>
+      <c r="H85" s="6"/>
+    </row>
+    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B86" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="C86" s="23"/>
+      <c r="D86" s="23"/>
+      <c r="E86" s="23"/>
+      <c r="F86" s="23"/>
+      <c r="G86" s="23"/>
+      <c r="H86" s="6"/>
+    </row>
+    <row r="87" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B87" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="C87" s="23"/>
+      <c r="D87" s="23"/>
+      <c r="E87" s="23"/>
+      <c r="F87" s="23"/>
+      <c r="G87" s="23"/>
+      <c r="H87" s="6"/>
+    </row>
+    <row r="88" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B88" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C88" s="23"/>
+      <c r="D88" s="23"/>
+      <c r="E88" s="23"/>
+      <c r="F88" s="23"/>
+      <c r="G88" s="23"/>
+      <c r="H88" s="6"/>
+    </row>
+    <row r="89" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B89" s="5"/>
+      <c r="C89" s="23"/>
+      <c r="D89" s="23"/>
+      <c r="E89" s="23"/>
+      <c r="F89" s="23"/>
+      <c r="G89" s="23"/>
+      <c r="H89" s="6"/>
+    </row>
+    <row r="90" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B90" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="C90" s="23"/>
+      <c r="D90" s="23"/>
+      <c r="E90" s="23"/>
+      <c r="F90" s="23"/>
+      <c r="G90" s="23"/>
+      <c r="H90" s="6"/>
+    </row>
+    <row r="91" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B91" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="C91" s="23"/>
+      <c r="D91" s="23"/>
+      <c r="E91" s="23"/>
+      <c r="F91" s="23"/>
+      <c r="G91" s="23"/>
+      <c r="H91" s="6"/>
+    </row>
+    <row r="92" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B92" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C92" s="23"/>
+      <c r="D92" s="23"/>
+      <c r="E92" s="23"/>
+      <c r="F92" s="23"/>
+      <c r="G92" s="23"/>
+      <c r="H92" s="6"/>
+    </row>
+    <row r="93" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B93" s="5"/>
+      <c r="C93" s="23"/>
+      <c r="D93" s="23"/>
+      <c r="E93" s="23"/>
+      <c r="F93" s="23"/>
+      <c r="G93" s="23"/>
+      <c r="H93" s="6"/>
+    </row>
+    <row r="94" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B94" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="C94" s="23"/>
+      <c r="D94" s="23"/>
+      <c r="E94" s="23"/>
+      <c r="F94" s="23"/>
+      <c r="G94" s="23"/>
+      <c r="H94" s="6"/>
+    </row>
+    <row r="95" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B95" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="C95" s="23"/>
+      <c r="D95" s="23"/>
+      <c r="E95" s="23"/>
+      <c r="F95" s="23"/>
+      <c r="G95" s="23"/>
+      <c r="H95" s="6"/>
+    </row>
+    <row r="96" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B96" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C96" s="23"/>
+      <c r="D96" s="23"/>
+      <c r="E96" s="23"/>
+      <c r="F96" s="23"/>
+      <c r="G96" s="23"/>
+      <c r="H96" s="6"/>
+    </row>
+    <row r="97" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B97" s="5"/>
+      <c r="C97" s="23"/>
+      <c r="D97" s="23"/>
+      <c r="E97" s="23"/>
+      <c r="F97" s="23"/>
+      <c r="G97" s="23"/>
+      <c r="H97" s="6"/>
+    </row>
+    <row r="98" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B98" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="C98" s="23"/>
+      <c r="D98" s="23"/>
+      <c r="E98" s="23"/>
+      <c r="F98" s="23"/>
+      <c r="G98" s="23"/>
+      <c r="H98" s="6"/>
+    </row>
+    <row r="99" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B99" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="C99" s="23"/>
+      <c r="D99" s="23"/>
+      <c r="E99" s="23"/>
+      <c r="F99" s="23"/>
+      <c r="G99" s="23"/>
+      <c r="H99" s="6"/>
+    </row>
+    <row r="100" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B100" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="C100" s="23"/>
+      <c r="D100" s="23"/>
+      <c r="E100" s="23"/>
+      <c r="F100" s="23"/>
+      <c r="G100" s="23"/>
+      <c r="H100" s="6"/>
+    </row>
+    <row r="101" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B101" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="C101" s="23"/>
+      <c r="D101" s="23"/>
+      <c r="E101" s="23"/>
+      <c r="F101" s="23"/>
+      <c r="G101" s="23"/>
+      <c r="H101" s="6"/>
+    </row>
+    <row r="102" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B102" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="C102" s="23"/>
+      <c r="D102" s="23"/>
+      <c r="E102" s="23"/>
+      <c r="F102" s="23"/>
+      <c r="G102" s="23"/>
+      <c r="H102" s="6"/>
+    </row>
+    <row r="103" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B103" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C103" s="23"/>
+      <c r="D103" s="23"/>
+      <c r="E103" s="23"/>
+      <c r="F103" s="23"/>
+      <c r="G103" s="23"/>
+      <c r="H103" s="6"/>
+    </row>
+    <row r="104" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B104" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C104" s="9"/>
+      <c r="D104" s="9"/>
+      <c r="E104" s="9"/>
+      <c r="F104" s="9"/>
+      <c r="G104" s="9"/>
+      <c r="H104" s="10"/>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="163" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B163" t="s">
+        <v>273</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>